--- a/Drill_Holes_Iron_Clean.xlsx
+++ b/Drill_Holes_Iron_Clean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">East</t>
   </si>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lithology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country Not Found</t>
   </si>
 </sst>
 </file>
@@ -404,15 +392,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -439,15 +418,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -474,15 +444,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -509,15 +470,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,15 +496,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -579,15 +522,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,15 +548,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -649,15 +574,6 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>-0.00175880867073328</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.5237988172709</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -684,15 +600,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.00168898922892046</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10.5202420430013</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -719,15 +626,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.00162170385218406</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.5202420431526</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -754,15 +652,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.00155432828057263</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10.5202420432979</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -789,15 +678,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.00148695270896114</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.5202420434371</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -824,15 +704,6 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.00141966733222458</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.5202420435699</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -859,15 +730,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.00135229176061299</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.5202420436967</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -894,15 +756,6 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.00128491618900135</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.5202420438174</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -929,15 +782,6 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.00121754061738966</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10.5202420439319</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -964,15 +808,6 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.00115016504577792</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.5202420440403</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -999,15 +834,6 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.00108278947416615</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10.5202420441424</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1034,15 +860,6 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.00101550409742932</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.5202420442383</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1069,15 +886,6 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,15 +912,6 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1139,15 +938,6 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1174,15 +964,6 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1209,15 +990,6 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1244,15 +1016,6 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1279,15 +1042,6 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1314,15 +1068,6 @@
       <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>-0.00174076117304011</v>
-      </c>
-      <c r="J27" t="n">
-        <v>10.5202778793121</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1349,15 +1094,6 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0.00174320488098792</v>
-      </c>
-      <c r="J28" t="n">
-        <v>10.5237988173079</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1384,15 +1120,6 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.00167582897960188</v>
-      </c>
-      <c r="J29" t="n">
-        <v>10.5237988174643</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1419,15 +1146,6 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0.00160845307821577</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10.5237988176144</v>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1454,15 +1172,6 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0.00154107717682961</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10.5237988177584</v>
-      </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1489,15 +1198,6 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0.00147379147075984</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10.5237988178961</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1524,15 +1224,6 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0.00140641556937357</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10.5237988180278</v>
-      </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1559,15 +1250,6 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0.00133903966798725</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10.5237988181533</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1594,15 +1276,6 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0.00127166376660087</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10.5237988182727</v>
-      </c>
-      <c r="K35" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1629,15 +1302,6 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0.00119941731812628</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10.5237988183938</v>
-      </c>
-      <c r="K36" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1664,15 +1328,6 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0.00366194400272548</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10.5266097494836</v>
-      </c>
-      <c r="K37" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1699,15 +1354,6 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0.00366194434098391</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10.5266769433826</v>
-      </c>
-      <c r="K38" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1734,15 +1380,6 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.00366194467923729</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10.5267441372879</v>
-      </c>
-      <c r="K39" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1769,15 +1406,6 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0.00366194501748563</v>
-      </c>
-      <c r="J40" t="n">
-        <v>10.5268113311993</v>
-      </c>
-      <c r="K40" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1804,15 +1432,6 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.00366194535572894</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10.5268785251169</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1839,15 +1458,6 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
-        <v>0.0036619456939672</v>
-      </c>
-      <c r="J42" t="n">
-        <v>10.5269457190408</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1874,15 +1484,6 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0.00366194603220043</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10.5270129129708</v>
-      </c>
-      <c r="K43" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1909,15 +1510,6 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
-        <v>0.00366194637042861</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.5270801069071</v>
-      </c>
-      <c r="K44" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1944,15 +1536,6 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
-        <v>0.00366194670865176</v>
-      </c>
-      <c r="J45" t="n">
-        <v>10.5271473008496</v>
-      </c>
-      <c r="K45" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1979,15 +1562,6 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0.00366194704686986</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10.5272144947982</v>
-      </c>
-      <c r="K46" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2014,15 +1588,6 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="n">
-        <v>0.00366194738508293</v>
-      </c>
-      <c r="J47" t="n">
-        <v>10.5272816887531</v>
-      </c>
-      <c r="K47" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2049,15 +1614,6 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="n">
-        <v>0.00366194772329096</v>
-      </c>
-      <c r="J48" t="n">
-        <v>10.5273488827142</v>
-      </c>
-      <c r="K48" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2084,15 +1640,6 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
-        <v>0.00366194806149395</v>
-      </c>
-      <c r="J49" t="n">
-        <v>10.5274160766815</v>
-      </c>
-      <c r="K49" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2119,15 +1666,6 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>0.00721568734218585</v>
-      </c>
-      <c r="J50" t="n">
-        <v>10.5300522986992</v>
-      </c>
-      <c r="K50" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2154,15 +1692,6 @@
       <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="I51" t="n">
-        <v>0.00721568734218585</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10.5300522986992</v>
-      </c>
-      <c r="K51" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2189,15 +1718,6 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I52" t="n">
-        <v>0.00721568734218585</v>
-      </c>
-      <c r="J52" t="n">
-        <v>10.5300522986992</v>
-      </c>
-      <c r="K52" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2224,15 +1744,6 @@
       <c r="H53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>0.00523610883463788</v>
-      </c>
-      <c r="J53" t="n">
-        <v>10.523816719068</v>
-      </c>
-      <c r="K53" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2259,15 +1770,6 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="n">
-        <v>0.00512679210841988</v>
-      </c>
-      <c r="J54" t="n">
-        <v>10.5238167198367</v>
-      </c>
-      <c r="K54" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2294,15 +1796,6 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>0.00498509526280159</v>
-      </c>
-      <c r="J55" t="n">
-        <v>10.5238167208091</v>
-      </c>
-      <c r="K55" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2329,15 +1822,6 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="n">
-        <v>0.00489877834284149</v>
-      </c>
-      <c r="J56" t="n">
-        <v>10.523816721388</v>
-      </c>
-      <c r="K56" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2364,15 +1848,6 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="n">
-        <v>0.004831492635119</v>
-      </c>
-      <c r="J57" t="n">
-        <v>10.5238167218323</v>
-      </c>
-      <c r="K57" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2399,15 +1874,6 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="n">
-        <v>0.00476411673207766</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10.523816722271</v>
-      </c>
-      <c r="K58" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2434,15 +1900,6 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="n">
-        <v>0.00469674082903616</v>
-      </c>
-      <c r="J59" t="n">
-        <v>10.5238167227036</v>
-      </c>
-      <c r="K59" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2469,15 +1926,6 @@
       <c r="H60" t="n">
         <v>1</v>
       </c>
-      <c r="I60" t="n">
-        <v>0.00462936492599449</v>
-      </c>
-      <c r="J60" t="n">
-        <v>10.52381672313</v>
-      </c>
-      <c r="K60" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2504,15 +1952,6 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.00456207921827131</v>
-      </c>
-      <c r="J61" t="n">
-        <v>10.5238167235497</v>
-      </c>
-      <c r="K61" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2539,15 +1978,6 @@
       <c r="H62" t="n">
         <v>1</v>
       </c>
-      <c r="I62" t="n">
-        <v>0.00442732741218714</v>
-      </c>
-      <c r="J62" t="n">
-        <v>10.5238167243717</v>
-      </c>
-      <c r="K62" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2574,15 +2004,6 @@
       <c r="H63" t="n">
         <v>2</v>
       </c>
-      <c r="I63" t="n">
-        <v>0.00409053809229261</v>
-      </c>
-      <c r="J63" t="n">
-        <v>10.5238167263184</v>
-      </c>
-      <c r="K63" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2609,15 +2030,6 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="n">
-        <v>0.0141877931854659</v>
-      </c>
-      <c r="J64" t="n">
-        <v>10.5273823522999</v>
-      </c>
-      <c r="K64" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2644,15 +2056,6 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>0.0141877931854659</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10.5273823522999</v>
-      </c>
-      <c r="K65" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2679,15 +2082,6 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="n">
-        <v>0.0141877931854659</v>
-      </c>
-      <c r="J66" t="n">
-        <v>10.5273823522999</v>
-      </c>
-      <c r="K66" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2714,15 +2108,6 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
-        <v>0.0141877931854659</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10.5273823522999</v>
-      </c>
-      <c r="K67" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2749,15 +2134,6 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K68" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2784,15 +2160,6 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J69" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K69" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2819,15 +2186,6 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K70" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2854,15 +2212,6 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K71" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2889,15 +2238,6 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K72" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2924,15 +2264,6 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K73" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2959,15 +2290,6 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J74" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K74" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2994,15 +2316,6 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J75" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K75" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3029,15 +2342,6 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.0213583566937411</v>
-      </c>
-      <c r="J76" t="n">
-        <v>10.5274000978636</v>
-      </c>
-      <c r="K76" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3064,15 +2368,6 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="n">
-        <v>0.0267634202670108</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10.5247390449108</v>
-      </c>
-      <c r="K77" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3099,15 +2394,6 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="n">
-        <v>0.026696044278639</v>
-      </c>
-      <c r="J78" t="n">
-        <v>10.5247390473546</v>
-      </c>
-      <c r="K78" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3134,15 +2420,6 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="n">
-        <v>0.0266287584856991</v>
-      </c>
-      <c r="J79" t="n">
-        <v>10.5247390497889</v>
-      </c>
-      <c r="K79" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3169,15 +2446,6 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="n">
-        <v>0.0265613824973253</v>
-      </c>
-      <c r="J80" t="n">
-        <v>10.5247390522204</v>
-      </c>
-      <c r="K80" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3204,15 +2472,6 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="n">
-        <v>0.0264940065089506</v>
-      </c>
-      <c r="J81" t="n">
-        <v>10.5247390546457</v>
-      </c>
-      <c r="K81" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3239,15 +2498,6 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="n">
-        <v>0.0177775419329744</v>
-      </c>
-      <c r="J82" t="n">
-        <v>10.5256419527425</v>
-      </c>
-      <c r="K82" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3274,15 +2524,6 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="n">
-        <v>0.0177775435754631</v>
-      </c>
-      <c r="J83" t="n">
-        <v>10.5257091465552</v>
-      </c>
-      <c r="K83" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3309,15 +2550,6 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="n">
-        <v>0.0177775452179274</v>
-      </c>
-      <c r="J84" t="n">
-        <v>10.5257763403741</v>
-      </c>
-      <c r="K84" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3344,15 +2576,6 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="n">
-        <v>0.0177775468603671</v>
-      </c>
-      <c r="J85" t="n">
-        <v>10.5258435341992</v>
-      </c>
-      <c r="K85" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3379,15 +2602,6 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="n">
-        <v>0.0177775485027824</v>
-      </c>
-      <c r="J86" t="n">
-        <v>10.5259107280305</v>
-      </c>
-      <c r="K86" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3414,15 +2628,6 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="n">
-        <v>0.0177775501451732</v>
-      </c>
-      <c r="J87" t="n">
-        <v>10.525977921868</v>
-      </c>
-      <c r="K87" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3449,15 +2654,6 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="n">
-        <v>0.0177775517875396</v>
-      </c>
-      <c r="J88" t="n">
-        <v>10.5260451157117</v>
-      </c>
-      <c r="K88" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3484,15 +2680,6 @@
       <c r="H89" t="n">
         <v>1</v>
       </c>
-      <c r="I89" t="n">
-        <v>0.0177775532875461</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10.5261064860944</v>
-      </c>
-      <c r="K89" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3519,15 +2706,6 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="n">
-        <v>0.0105979772011712</v>
-      </c>
-      <c r="J90" t="n">
-        <v>10.5256868868074</v>
-      </c>
-      <c r="K90" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3554,15 +2732,6 @@
       <c r="H91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="n">
-        <v>0.0105979781803214</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10.5257540806222</v>
-      </c>
-      <c r="K91" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3589,15 +2758,6 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="n">
-        <v>0.010597979159457</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.5258212744431</v>
-      </c>
-      <c r="K92" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3624,15 +2784,6 @@
       <c r="H93" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="n">
-        <v>0.010597980138578</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.5258884682703</v>
-      </c>
-      <c r="K93" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3659,15 +2810,6 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="n">
-        <v>0.0105979811176844</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10.5259556621037</v>
-      </c>
-      <c r="K94" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3694,15 +2836,6 @@
       <c r="H95" t="n">
         <v>1</v>
       </c>
-      <c r="I95" t="n">
-        <v>0.0105979820967762</v>
-      </c>
-      <c r="J95" t="n">
-        <v>10.5260228559433</v>
-      </c>
-      <c r="K95" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3729,15 +2862,6 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="n">
-        <v>0.0105979830849915</v>
-      </c>
-      <c r="J96" t="n">
-        <v>10.5260906769317</v>
-      </c>
-      <c r="K96" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3764,15 +2888,6 @@
       <c r="H97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" t="n">
-        <v>0.0105979841724027</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10.5261653069038</v>
-      </c>
-      <c r="K97" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3799,15 +2914,6 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="n">
-        <v>0.010597985151449</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10.5262325007628</v>
-      </c>
-      <c r="K98" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3834,15 +2940,6 @@
       <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="n">
-        <v>0.0105979861291754</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10.5262996050361</v>
-      </c>
-      <c r="K99" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3869,15 +2966,6 @@
       <c r="H100" t="n">
         <v>1</v>
       </c>
-      <c r="I100" t="n">
-        <v>0.010597987109498</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10.5263668884993</v>
-      </c>
-      <c r="K100" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3904,15 +2992,6 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K101" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3939,15 +3018,6 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K102" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3974,15 +3044,6 @@
       <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="I103" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K103" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4009,15 +3070,6 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J104" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K104" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4044,15 +3096,6 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K105" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4079,15 +3122,6 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J106" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K106" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4114,15 +3148,6 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J107" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K107" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4149,15 +3174,6 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K108" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4184,15 +3200,6 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="n">
-        <v>0.00000901948794324927</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.52027788137</v>
-      </c>
-      <c r="K109" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4219,15 +3226,6 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="n">
-        <v>-0.00023450782565545</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.5238077784843</v>
-      </c>
-      <c r="K110" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4254,15 +3252,6 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="n">
-        <v>-0.00023450782565545</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10.5238077784843</v>
-      </c>
-      <c r="K111" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4289,15 +3278,6 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="n">
-        <v>-0.00023450782565545</v>
-      </c>
-      <c r="J112" t="n">
-        <v>10.5238077784843</v>
-      </c>
-      <c r="K112" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4324,15 +3304,6 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="n">
-        <v>-0.00023450782565545</v>
-      </c>
-      <c r="J113" t="n">
-        <v>10.5238077784843</v>
-      </c>
-      <c r="K113" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4359,15 +3330,6 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J114" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K114" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4394,15 +3356,6 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J115" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K115" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4429,15 +3382,6 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J116" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K116" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4464,15 +3408,6 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J117" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K117" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4499,15 +3434,6 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K118" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4534,15 +3460,6 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J119" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K119" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4569,15 +3486,6 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J120" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K120" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4604,15 +3512,6 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J121" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K121" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4639,15 +3538,6 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K122" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4674,15 +3564,6 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J123" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K123" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4709,15 +3590,6 @@
       <c r="H124" t="n">
         <v>1</v>
       </c>
-      <c r="I124" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J124" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K124" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4744,15 +3616,6 @@
       <c r="H125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J125" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K125" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4779,15 +3642,6 @@
       <c r="H126" t="n">
         <v>1</v>
       </c>
-      <c r="I126" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J126" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K126" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4814,15 +3668,6 @@
       <c r="H127" t="n">
         <v>1</v>
       </c>
-      <c r="I127" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J127" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K127" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4849,15 +3694,6 @@
       <c r="H128" t="n">
         <v>1</v>
       </c>
-      <c r="I128" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J128" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K128" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4884,15 +3720,6 @@
       <c r="H129" t="n">
         <v>1</v>
       </c>
-      <c r="I129" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J129" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K129" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4919,15 +3746,6 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J130" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K130" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4954,15 +3772,6 @@
       <c r="H131" t="n">
         <v>1</v>
       </c>
-      <c r="I131" t="n">
-        <v>0.00311172322524386</v>
-      </c>
-      <c r="J131" t="n">
-        <v>10.5202509974703</v>
-      </c>
-      <c r="K131" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4989,15 +3798,6 @@
       <c r="H132" t="n">
         <v>1</v>
       </c>
-      <c r="I132" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J132" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K132" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5024,15 +3824,6 @@
       <c r="H133" t="n">
         <v>1</v>
       </c>
-      <c r="I133" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J133" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K133" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5059,15 +3850,6 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J134" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K134" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5094,15 +3876,6 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J135" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K135" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5129,15 +3902,6 @@
       <c r="H136" t="n">
         <v>1</v>
       </c>
-      <c r="I136" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J136" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K136" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5164,15 +3928,6 @@
       <c r="H137" t="n">
         <v>1</v>
       </c>
-      <c r="I137" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J137" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K137" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5199,15 +3954,6 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
-      <c r="I138" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J138" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K138" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5234,15 +3980,6 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J139" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K139" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5269,15 +4006,6 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J140" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K140" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5304,15 +4032,6 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K141" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5339,15 +4058,6 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J142" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K142" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5374,15 +4084,6 @@
       <c r="H143" t="n">
         <v>1</v>
       </c>
-      <c r="I143" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J143" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K143" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5409,15 +4110,6 @@
       <c r="H144" t="n">
         <v>1</v>
       </c>
-      <c r="I144" t="n">
-        <v>0.00296742591111212</v>
-      </c>
-      <c r="J144" t="n">
-        <v>10.5237988133945</v>
-      </c>
-      <c r="K144" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5444,15 +4136,6 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J145" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K145" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5479,15 +4162,6 @@
       <c r="H146" t="n">
         <v>1</v>
       </c>
-      <c r="I146" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J146" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K146" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5514,15 +4188,6 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J147" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K147" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5549,15 +4214,6 @@
       <c r="H148" t="n">
         <v>1</v>
       </c>
-      <c r="I148" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J148" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K148" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5584,15 +4240,6 @@
       <c r="H149" t="n">
         <v>1</v>
       </c>
-      <c r="I149" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J149" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K149" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5619,15 +4266,6 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J150" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K150" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5654,15 +4292,6 @@
       <c r="H151" t="n">
         <v>1</v>
       </c>
-      <c r="I151" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J151" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K151" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5689,15 +4318,6 @@
       <c r="H152" t="n">
         <v>1</v>
       </c>
-      <c r="I152" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J152" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K152" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5724,15 +4344,6 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J153" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K153" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5759,15 +4370,6 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J154" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K154" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5794,15 +4396,6 @@
       <c r="H155" t="n">
         <v>1</v>
       </c>
-      <c r="I155" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J155" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K155" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5829,15 +4422,6 @@
       <c r="H156" t="n">
         <v>1</v>
       </c>
-      <c r="I156" t="n">
-        <v>0.00144312180791207</v>
-      </c>
-      <c r="J156" t="n">
-        <v>10.5221592950858</v>
-      </c>
-      <c r="K156" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5864,15 +4448,6 @@
       <c r="H157" t="n">
         <v>1</v>
       </c>
-      <c r="I157" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J157" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K157" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5899,15 +4474,6 @@
       <c r="H158" t="n">
         <v>1</v>
       </c>
-      <c r="I158" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J158" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K158" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5934,15 +4500,6 @@
       <c r="H159" t="n">
         <v>1</v>
       </c>
-      <c r="I159" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J159" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K159" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5969,15 +4526,6 @@
       <c r="H160" t="n">
         <v>1</v>
       </c>
-      <c r="I160" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J160" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K160" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6004,15 +4552,6 @@
       <c r="H161" t="n">
         <v>1</v>
       </c>
-      <c r="I161" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J161" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K161" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6039,15 +4578,6 @@
       <c r="H162" t="n">
         <v>1</v>
       </c>
-      <c r="I162" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J162" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K162" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6074,15 +4604,6 @@
       <c r="H163" t="n">
         <v>1</v>
       </c>
-      <c r="I163" t="n">
-        <v>0.00180391079655952</v>
-      </c>
-      <c r="J163" t="n">
-        <v>10.5255996088388</v>
-      </c>
-      <c r="K163" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6109,15 +4630,6 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J164" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K164" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6144,15 +4656,6 @@
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J165" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K165" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6179,15 +4682,6 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J166" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K166" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6214,15 +4708,6 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J167" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K167" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6249,15 +4734,6 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J168" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K168" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6284,15 +4760,6 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J169" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K169" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6319,15 +4786,6 @@
       <c r="H170" t="n">
         <v>1</v>
       </c>
-      <c r="I170" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J170" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K170" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6354,15 +4812,6 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J171" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K171" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6389,15 +4838,6 @@
       <c r="H172" t="n">
         <v>1</v>
       </c>
-      <c r="I172" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J172" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K172" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6424,15 +4864,6 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J173" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K173" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6459,15 +4890,6 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J174" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K174" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6494,15 +4916,6 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J175" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K175" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6529,15 +4942,6 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J176" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K176" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6564,15 +4968,6 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J177" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K177" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6599,15 +4994,6 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="n">
-        <v>0.00543879105143704</v>
-      </c>
-      <c r="J178" t="n">
-        <v>10.5255995909807</v>
-      </c>
-      <c r="K178" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6634,15 +5020,6 @@
       <c r="H179" t="n">
         <v>1</v>
       </c>
-      <c r="I179" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J179" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K179" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6669,15 +5046,6 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J180" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K180" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6704,15 +5072,6 @@
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J181" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K181" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6739,15 +5098,6 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J182" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K182" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6774,15 +5124,6 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J183" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K183" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6809,15 +5150,6 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J184" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K184" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6844,15 +5176,6 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J185" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K185" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6879,15 +5202,6 @@
       <c r="H186" t="n">
         <v>1</v>
       </c>
-      <c r="I186" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J186" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K186" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6914,15 +5228,6 @@
       <c r="H187" t="n">
         <v>1</v>
       </c>
-      <c r="I187" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J187" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K187" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6949,15 +5254,6 @@
       <c r="H188" t="n">
         <v>1</v>
       </c>
-      <c r="I188" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J188" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K188" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6984,15 +5280,6 @@
       <c r="H189" t="n">
         <v>1</v>
       </c>
-      <c r="I189" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J189" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K189" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7019,15 +5306,6 @@
       <c r="H190" t="n">
         <v>1</v>
       </c>
-      <c r="I190" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J190" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K190" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7054,15 +5332,6 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J191" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K191" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7089,15 +5358,6 @@
       <c r="H192" t="n">
         <v>1</v>
       </c>
-      <c r="I192" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J192" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K192" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7124,15 +5384,6 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J193" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K193" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7159,15 +5410,6 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J194" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K194" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7194,15 +5436,6 @@
       <c r="H195" t="n">
         <v>1</v>
       </c>
-      <c r="I195" t="n">
-        <v>0.00356270634830506</v>
-      </c>
-      <c r="J195" t="n">
-        <v>10.5220338600558</v>
-      </c>
-      <c r="K195" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7229,15 +5462,6 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J196" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K196" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7264,15 +5488,6 @@
       <c r="H197" t="n">
         <v>1</v>
       </c>
-      <c r="I197" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J197" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K197" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7299,15 +5514,6 @@
       <c r="H198" t="n">
         <v>1</v>
       </c>
-      <c r="I198" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J198" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K198" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7334,15 +5540,6 @@
       <c r="H199" t="n">
         <v>1</v>
       </c>
-      <c r="I199" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J199" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K199" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7369,15 +5566,6 @@
       <c r="H200" t="n">
         <v>1</v>
       </c>
-      <c r="I200" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J200" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K200" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7404,15 +5592,6 @@
       <c r="H201" t="n">
         <v>1</v>
       </c>
-      <c r="I201" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J201" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K201" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7439,15 +5618,6 @@
       <c r="H202" t="n">
         <v>1</v>
       </c>
-      <c r="I202" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J202" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K202" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7474,15 +5644,6 @@
       <c r="H203" t="n">
         <v>1</v>
       </c>
-      <c r="I203" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J203" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K203" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7509,15 +5670,6 @@
       <c r="H204" t="n">
         <v>1</v>
       </c>
-      <c r="I204" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J204" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K204" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7544,15 +5696,6 @@
       <c r="H205" t="n">
         <v>1</v>
       </c>
-      <c r="I205" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J205" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K205" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7579,15 +5722,6 @@
       <c r="H206" t="n">
         <v>1</v>
       </c>
-      <c r="I206" t="n">
-        <v>0.00364389864184891</v>
-      </c>
-      <c r="J206" t="n">
-        <v>10.5253666635609</v>
-      </c>
-      <c r="K206" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7614,15 +5748,6 @@
       <c r="H207" t="n">
         <v>1</v>
       </c>
-      <c r="I207" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J207" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K207" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7649,15 +5774,6 @@
       <c r="H208" t="n">
         <v>1</v>
       </c>
-      <c r="I208" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J208" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K208" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7684,15 +5800,6 @@
       <c r="H209" t="n">
         <v>1</v>
       </c>
-      <c r="I209" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J209" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K209" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7719,15 +5826,6 @@
       <c r="H210" t="n">
         <v>1</v>
       </c>
-      <c r="I210" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J210" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K210" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7754,15 +5852,6 @@
       <c r="H211" t="n">
         <v>1</v>
       </c>
-      <c r="I211" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J211" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K211" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7789,15 +5878,6 @@
       <c r="H212" t="n">
         <v>1</v>
       </c>
-      <c r="I212" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J212" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K212" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7824,15 +5904,6 @@
       <c r="H213" t="n">
         <v>1</v>
       </c>
-      <c r="I213" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J213" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K213" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7859,15 +5930,6 @@
       <c r="H214" t="n">
         <v>1</v>
       </c>
-      <c r="I214" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J214" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K214" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7894,15 +5956,6 @@
       <c r="H215" t="n">
         <v>1</v>
       </c>
-      <c r="I215" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J215" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K215" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7929,15 +5982,6 @@
       <c r="H216" t="n">
         <v>1</v>
       </c>
-      <c r="I216" t="n">
-        <v>0.00364391309233975</v>
-      </c>
-      <c r="J216" t="n">
-        <v>10.5282515222823</v>
-      </c>
-      <c r="K216" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7964,15 +6008,6 @@
       <c r="H217" t="n">
         <v>1</v>
       </c>
-      <c r="I217" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J217" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K217" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7999,15 +6034,6 @@
       <c r="H218" t="n">
         <v>1</v>
       </c>
-      <c r="I218" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J218" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K218" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8034,15 +6060,6 @@
       <c r="H219" t="n">
         <v>1</v>
       </c>
-      <c r="I219" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J219" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K219" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8069,15 +6086,6 @@
       <c r="H220" t="n">
         <v>1</v>
       </c>
-      <c r="I220" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J220" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K220" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8104,15 +6112,6 @@
       <c r="H221" t="n">
         <v>1</v>
       </c>
-      <c r="I221" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J221" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K221" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8139,15 +6138,6 @@
       <c r="H222" t="n">
         <v>1</v>
       </c>
-      <c r="I222" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J222" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K222" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8174,15 +6164,6 @@
       <c r="H223" t="n">
         <v>1</v>
       </c>
-      <c r="I223" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J223" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K223" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8209,15 +6190,6 @@
       <c r="H224" t="n">
         <v>1</v>
       </c>
-      <c r="I224" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J224" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K224" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8244,15 +6216,6 @@
       <c r="H225" t="n">
         <v>1</v>
       </c>
-      <c r="I225" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J225" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K225" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8279,15 +6242,6 @@
       <c r="H226" t="n">
         <v>1</v>
       </c>
-      <c r="I226" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J226" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K226" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8314,15 +6268,6 @@
       <c r="H227" t="n">
         <v>1</v>
       </c>
-      <c r="I227" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J227" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K227" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8349,15 +6294,6 @@
       <c r="H228" t="n">
         <v>1</v>
       </c>
-      <c r="I228" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J228" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K228" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8384,15 +6320,6 @@
       <c r="H229" t="n">
         <v>1</v>
       </c>
-      <c r="I229" t="n">
-        <v>0.00543880431496091</v>
-      </c>
-      <c r="J229" t="n">
-        <v>10.5273735095366</v>
-      </c>
-      <c r="K229" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -8419,15 +6346,6 @@
       <c r="H230" t="n">
         <v>1</v>
       </c>
-      <c r="I230" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J230" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K230" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -8454,15 +6372,6 @@
       <c r="H231" t="n">
         <v>1</v>
       </c>
-      <c r="I231" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J231" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K231" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -8489,15 +6398,6 @@
       <c r="H232" t="n">
         <v>1</v>
       </c>
-      <c r="I232" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J232" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K232" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8524,15 +6424,6 @@
       <c r="H233" t="n">
         <v>1</v>
       </c>
-      <c r="I233" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J233" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K233" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8559,15 +6450,6 @@
       <c r="H234" t="n">
         <v>1</v>
       </c>
-      <c r="I234" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J234" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K234" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8594,15 +6476,6 @@
       <c r="H235" t="n">
         <v>1</v>
       </c>
-      <c r="I235" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J235" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K235" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8629,15 +6502,6 @@
       <c r="H236" t="n">
         <v>1</v>
       </c>
-      <c r="I236" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J236" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K236" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8664,15 +6528,6 @@
       <c r="H237" t="n">
         <v>2</v>
       </c>
-      <c r="I237" t="n">
-        <v>0.0105799627517632</v>
-      </c>
-      <c r="J237" t="n">
-        <v>10.5273824128903</v>
-      </c>
-      <c r="K237" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8699,15 +6554,6 @@
       <c r="H238" t="n">
         <v>1</v>
       </c>
-      <c r="I238" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J238" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K238" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8734,15 +6580,6 @@
       <c r="H239" t="n">
         <v>1</v>
       </c>
-      <c r="I239" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J239" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K239" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8769,15 +6606,6 @@
       <c r="H240" t="n">
         <v>1</v>
       </c>
-      <c r="I240" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J240" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K240" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8804,15 +6632,6 @@
       <c r="H241" t="n">
         <v>1</v>
       </c>
-      <c r="I241" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J241" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K241" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8839,15 +6658,6 @@
       <c r="H242" t="n">
         <v>1</v>
       </c>
-      <c r="I242" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J242" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K242" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8874,15 +6684,6 @@
       <c r="H243" t="n">
         <v>1</v>
       </c>
-      <c r="I243" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J243" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K243" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8909,15 +6710,6 @@
       <c r="H244" t="n">
         <v>2</v>
       </c>
-      <c r="I244" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J244" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K244" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8944,15 +6736,6 @@
       <c r="H245" t="n">
         <v>1</v>
       </c>
-      <c r="I245" t="n">
-        <v>0.0086768105030608</v>
-      </c>
-      <c r="J245" t="n">
-        <v>10.5255637232821</v>
-      </c>
-      <c r="K245" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8979,15 +6762,6 @@
       <c r="H246" t="n">
         <v>1</v>
       </c>
-      <c r="I246" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J246" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K246" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9014,15 +6788,6 @@
       <c r="H247" t="n">
         <v>1</v>
       </c>
-      <c r="I247" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J247" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K247" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9049,15 +6814,6 @@
       <c r="H248" t="n">
         <v>1</v>
       </c>
-      <c r="I248" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J248" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K248" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9084,15 +6840,6 @@
       <c r="H249" t="n">
         <v>1</v>
       </c>
-      <c r="I249" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J249" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K249" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9119,15 +6866,6 @@
       <c r="H250" t="n">
         <v>1</v>
       </c>
-      <c r="I250" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J250" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K250" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9154,15 +6892,6 @@
       <c r="H251" t="n">
         <v>1</v>
       </c>
-      <c r="I251" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J251" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K251" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9189,15 +6918,6 @@
       <c r="H252" t="n">
         <v>1</v>
       </c>
-      <c r="I252" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J252" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K252" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9224,15 +6944,6 @@
       <c r="H253" t="n">
         <v>1</v>
       </c>
-      <c r="I253" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J253" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K253" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9259,15 +6970,6 @@
       <c r="H254" t="n">
         <v>1</v>
       </c>
-      <c r="I254" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J254" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K254" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9294,15 +6996,6 @@
       <c r="H255" t="n">
         <v>1</v>
       </c>
-      <c r="I255" t="n">
-        <v>-0.00193017508492748</v>
-      </c>
-      <c r="J255" t="n">
-        <v>10.5220338661435</v>
-      </c>
-      <c r="K255" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9329,15 +7022,6 @@
       <c r="H256" t="n">
         <v>1</v>
       </c>
-      <c r="I256" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J256" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K256" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9364,15 +7048,6 @@
       <c r="H257" t="n">
         <v>1</v>
       </c>
-      <c r="I257" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J257" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K257" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9399,15 +7074,6 @@
       <c r="H258" t="n">
         <v>1</v>
       </c>
-      <c r="I258" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J258" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K258" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9434,15 +7100,6 @@
       <c r="H259" t="n">
         <v>2</v>
       </c>
-      <c r="I259" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J259" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K259" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -9469,15 +7126,6 @@
       <c r="H260" t="n">
         <v>1</v>
       </c>
-      <c r="I260" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J260" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K260" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9504,15 +7152,6 @@
       <c r="H261" t="n">
         <v>1</v>
       </c>
-      <c r="I261" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J261" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K261" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -9539,15 +7178,6 @@
       <c r="H262" t="n">
         <v>1</v>
       </c>
-      <c r="I262" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J262" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K262" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -9574,15 +7204,6 @@
       <c r="H263" t="n">
         <v>1</v>
       </c>
-      <c r="I263" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J263" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K263" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -9609,15 +7230,6 @@
       <c r="H264" t="n">
         <v>1</v>
       </c>
-      <c r="I264" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J264" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K264" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9644,15 +7256,6 @@
       <c r="H265" t="n">
         <v>1</v>
       </c>
-      <c r="I265" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J265" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K265" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9679,15 +7282,6 @@
       <c r="H266" t="n">
         <v>1</v>
       </c>
-      <c r="I266" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J266" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K266" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9714,15 +7308,6 @@
       <c r="H267" t="n">
         <v>1</v>
       </c>
-      <c r="I267" t="n">
-        <v>0.00872192975574522</v>
-      </c>
-      <c r="J267" t="n">
-        <v>10.5273555596214</v>
-      </c>
-      <c r="K267" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9749,15 +7334,6 @@
       <c r="H268" t="n">
         <v>1</v>
       </c>
-      <c r="I268" t="n">
-        <v>0.00878508885050926</v>
-      </c>
-      <c r="J268" t="n">
-        <v>10.5291832370274</v>
-      </c>
-      <c r="K268" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9784,15 +7360,6 @@
       <c r="H269" t="n">
         <v>1</v>
       </c>
-      <c r="I269" t="n">
-        <v>0.00878508885050926</v>
-      </c>
-      <c r="J269" t="n">
-        <v>10.5291832370274</v>
-      </c>
-      <c r="K269" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9819,15 +7386,6 @@
       <c r="H270" t="n">
         <v>1</v>
       </c>
-      <c r="I270" t="n">
-        <v>0.00878508885050926</v>
-      </c>
-      <c r="J270" t="n">
-        <v>10.5291832370274</v>
-      </c>
-      <c r="K270" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9854,15 +7412,6 @@
       <c r="H271" t="n">
         <v>1</v>
       </c>
-      <c r="I271" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J271" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K271" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9889,15 +7438,6 @@
       <c r="H272" t="n">
         <v>1</v>
       </c>
-      <c r="I272" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J272" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K272" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9924,15 +7464,6 @@
       <c r="H273" t="n">
         <v>1</v>
       </c>
-      <c r="I273" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J273" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K273" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9959,15 +7490,6 @@
       <c r="H274" t="n">
         <v>1</v>
       </c>
-      <c r="I274" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J274" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K274" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9994,15 +7516,6 @@
       <c r="H275" t="n">
         <v>1</v>
       </c>
-      <c r="I275" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J275" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K275" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10029,15 +7542,6 @@
       <c r="H276" t="n">
         <v>1</v>
       </c>
-      <c r="I276" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J276" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K276" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10064,15 +7568,6 @@
       <c r="H277" t="n">
         <v>1</v>
       </c>
-      <c r="I277" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J277" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K277" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10099,15 +7594,6 @@
       <c r="H278" t="n">
         <v>1</v>
       </c>
-      <c r="I278" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J278" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K278" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10134,15 +7620,6 @@
       <c r="H279" t="n">
         <v>1</v>
       </c>
-      <c r="I279" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J279" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K279" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10169,15 +7646,6 @@
       <c r="H280" t="n">
         <v>1</v>
       </c>
-      <c r="I280" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J280" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K280" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10204,15 +7672,6 @@
       <c r="H281" t="n">
         <v>1</v>
       </c>
-      <c r="I281" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J281" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K281" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10239,15 +7698,6 @@
       <c r="H282" t="n">
         <v>1</v>
       </c>
-      <c r="I282" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J282" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K282" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10274,15 +7724,6 @@
       <c r="H283" t="n">
         <v>1</v>
       </c>
-      <c r="I283" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J283" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K283" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10309,15 +7750,6 @@
       <c r="H284" t="n">
         <v>1</v>
       </c>
-      <c r="I284" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J284" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K284" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10344,15 +7776,6 @@
       <c r="H285" t="n">
         <v>1</v>
       </c>
-      <c r="I285" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J285" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K285" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10379,15 +7802,6 @@
       <c r="H286" t="n">
         <v>1</v>
       </c>
-      <c r="I286" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J286" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K286" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10414,15 +7828,6 @@
       <c r="H287" t="n">
         <v>1</v>
       </c>
-      <c r="I287" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J287" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K287" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10449,15 +7854,6 @@
       <c r="H288" t="n">
         <v>2</v>
       </c>
-      <c r="I288" t="n">
-        <v>0.00710740985132585</v>
-      </c>
-      <c r="J288" t="n">
-        <v>10.5257339643982</v>
-      </c>
-      <c r="K288" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10484,15 +7880,6 @@
       <c r="H289" t="n">
         <v>1</v>
       </c>
-      <c r="I289" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J289" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K289" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10519,15 +7906,6 @@
       <c r="H290" t="n">
         <v>1</v>
       </c>
-      <c r="I290" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J290" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K290" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10554,15 +7932,6 @@
       <c r="H291" t="n">
         <v>1</v>
       </c>
-      <c r="I291" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J291" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K291" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10589,15 +7958,6 @@
       <c r="H292" t="n">
         <v>1</v>
       </c>
-      <c r="I292" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J292" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K292" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -10624,15 +7984,6 @@
       <c r="H293" t="n">
         <v>1</v>
       </c>
-      <c r="I293" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J293" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K293" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -10659,15 +8010,6 @@
       <c r="H294" t="n">
         <v>1</v>
       </c>
-      <c r="I294" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J294" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K294" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -10694,15 +8036,6 @@
       <c r="H295" t="n">
         <v>1</v>
       </c>
-      <c r="I295" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J295" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K295" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -10729,15 +8062,6 @@
       <c r="H296" t="n">
         <v>1</v>
       </c>
-      <c r="I296" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J296" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K296" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -10764,15 +8088,6 @@
       <c r="H297" t="n">
         <v>1</v>
       </c>
-      <c r="I297" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J297" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K297" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -10799,15 +8114,6 @@
       <c r="H298" t="n">
         <v>1</v>
       </c>
-      <c r="I298" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J298" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K298" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -10834,15 +8140,6 @@
       <c r="H299" t="n">
         <v>1</v>
       </c>
-      <c r="I299" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J299" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K299" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -10869,15 +8166,6 @@
       <c r="H300" t="n">
         <v>1</v>
       </c>
-      <c r="I300" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J300" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K300" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -10904,15 +8192,6 @@
       <c r="H301" t="n">
         <v>1</v>
       </c>
-      <c r="I301" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J301" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K301" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -10939,15 +8218,6 @@
       <c r="H302" t="n">
         <v>1</v>
       </c>
-      <c r="I302" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J302" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K302" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -10974,15 +8244,6 @@
       <c r="H303" t="n">
         <v>1</v>
       </c>
-      <c r="I303" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J303" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K303" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -11009,15 +8270,6 @@
       <c r="H304" t="n">
         <v>1</v>
       </c>
-      <c r="I304" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J304" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K304" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -11044,15 +8296,6 @@
       <c r="H305" t="n">
         <v>1</v>
       </c>
-      <c r="I305" t="n">
-        <v>0.0070893544933522</v>
-      </c>
-      <c r="J305" t="n">
-        <v>10.5240675598598</v>
-      </c>
-      <c r="K305" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -11079,15 +8322,6 @@
       <c r="H306" t="n">
         <v>1</v>
       </c>
-      <c r="I306" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J306" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K306" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -11114,15 +8348,6 @@
       <c r="H307" t="n">
         <v>1</v>
       </c>
-      <c r="I307" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J307" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K307" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -11149,15 +8374,6 @@
       <c r="H308" t="n">
         <v>1</v>
       </c>
-      <c r="I308" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J308" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K308" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11184,15 +8400,6 @@
       <c r="H309" t="n">
         <v>1</v>
       </c>
-      <c r="I309" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J309" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K309" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11219,15 +8426,6 @@
       <c r="H310" t="n">
         <v>1</v>
       </c>
-      <c r="I310" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J310" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K310" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -11254,15 +8452,6 @@
       <c r="H311" t="n">
         <v>1</v>
       </c>
-      <c r="I311" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J311" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K311" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11289,15 +8478,6 @@
       <c r="H312" t="n">
         <v>1</v>
       </c>
-      <c r="I312" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J312" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K312" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11324,15 +8504,6 @@
       <c r="H313" t="n">
         <v>1</v>
       </c>
-      <c r="I313" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J313" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K313" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11359,15 +8530,6 @@
       <c r="H314" t="n">
         <v>1</v>
       </c>
-      <c r="I314" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J314" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K314" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11394,15 +8556,6 @@
       <c r="H315" t="n">
         <v>1</v>
       </c>
-      <c r="I315" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J315" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K315" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11429,15 +8582,6 @@
       <c r="H316" t="n">
         <v>1</v>
       </c>
-      <c r="I316" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J316" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K316" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11464,15 +8608,6 @@
       <c r="H317" t="n">
         <v>1</v>
       </c>
-      <c r="I317" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J317" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K317" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11499,15 +8634,6 @@
       <c r="H318" t="n">
         <v>1</v>
       </c>
-      <c r="I318" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J318" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K318" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11534,15 +8660,6 @@
       <c r="H319" t="n">
         <v>2</v>
       </c>
-      <c r="I319" t="n">
-        <v>0.0105799098354818</v>
-      </c>
-      <c r="J319" t="n">
-        <v>10.5237449885025</v>
-      </c>
-      <c r="K319" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -11569,15 +8686,6 @@
       <c r="H320" t="n">
         <v>1</v>
       </c>
-      <c r="I320" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J320" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K320" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -11604,15 +8712,6 @@
       <c r="H321" t="n">
         <v>1</v>
       </c>
-      <c r="I321" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J321" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K321" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -11639,15 +8738,6 @@
       <c r="H322" t="n">
         <v>1</v>
       </c>
-      <c r="I322" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J322" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K322" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -11674,15 +8764,6 @@
       <c r="H323" t="n">
         <v>1</v>
       </c>
-      <c r="I323" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J323" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K323" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -11709,15 +8790,6 @@
       <c r="H324" t="n">
         <v>1</v>
       </c>
-      <c r="I324" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J324" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K324" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -11744,15 +8816,6 @@
       <c r="H325" t="n">
         <v>1</v>
       </c>
-      <c r="I325" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J325" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K325" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -11779,15 +8842,6 @@
       <c r="H326" t="n">
         <v>1</v>
       </c>
-      <c r="I326" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J326" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K326" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -11814,15 +8868,6 @@
       <c r="H327" t="n">
         <v>1</v>
       </c>
-      <c r="I327" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J327" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K327" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -11849,15 +8894,6 @@
       <c r="H328" t="n">
         <v>1</v>
       </c>
-      <c r="I328" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J328" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K328" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -11884,15 +8920,6 @@
       <c r="H329" t="n">
         <v>1</v>
       </c>
-      <c r="I329" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J329" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K329" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -11919,15 +8946,6 @@
       <c r="H330" t="n">
         <v>1</v>
       </c>
-      <c r="I330" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J330" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K330" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -11954,15 +8972,6 @@
       <c r="H331" t="n">
         <v>1</v>
       </c>
-      <c r="I331" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J331" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K331" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -11989,15 +8998,6 @@
       <c r="H332" t="n">
         <v>1</v>
       </c>
-      <c r="I332" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J332" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K332" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -12024,15 +9024,6 @@
       <c r="H333" t="n">
         <v>1</v>
       </c>
-      <c r="I333" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J333" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K333" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -12059,15 +9050,6 @@
       <c r="H334" t="n">
         <v>1</v>
       </c>
-      <c r="I334" t="n">
-        <v>0.0141877127819359</v>
-      </c>
-      <c r="J334" t="n">
-        <v>10.5232611338658</v>
-      </c>
-      <c r="K334" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -12094,15 +9076,6 @@
       <c r="H335" t="n">
         <v>1</v>
       </c>
-      <c r="I335" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J335" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K335" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -12129,15 +9102,6 @@
       <c r="H336" t="n">
         <v>1</v>
       </c>
-      <c r="I336" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J336" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K336" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -12164,15 +9128,6 @@
       <c r="H337" t="n">
         <v>1</v>
       </c>
-      <c r="I337" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J337" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K337" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -12199,15 +9154,6 @@
       <c r="H338" t="n">
         <v>1</v>
       </c>
-      <c r="I338" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J338" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K338" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -12234,15 +9180,6 @@
       <c r="H339" t="n">
         <v>1</v>
       </c>
-      <c r="I339" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J339" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K339" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -12269,15 +9206,6 @@
       <c r="H340" t="n">
         <v>1</v>
       </c>
-      <c r="I340" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J340" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K340" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -12304,15 +9232,6 @@
       <c r="H341" t="n">
         <v>1</v>
       </c>
-      <c r="I341" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J341" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K341" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -12339,15 +9258,6 @@
       <c r="H342" t="n">
         <v>1</v>
       </c>
-      <c r="I342" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J342" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K342" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -12374,15 +9284,6 @@
       <c r="H343" t="n">
         <v>1</v>
       </c>
-      <c r="I343" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J343" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K343" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -12409,15 +9310,6 @@
       <c r="H344" t="n">
         <v>1</v>
       </c>
-      <c r="I344" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J344" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K344" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -12444,15 +9336,6 @@
       <c r="H345" t="n">
         <v>1</v>
       </c>
-      <c r="I345" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J345" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K345" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -12479,15 +9362,6 @@
       <c r="H346" t="n">
         <v>1</v>
       </c>
-      <c r="I346" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J346" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K346" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12514,15 +9388,6 @@
       <c r="H347" t="n">
         <v>1</v>
       </c>
-      <c r="I347" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J347" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K347" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -12549,15 +9414,6 @@
       <c r="H348" t="n">
         <v>1</v>
       </c>
-      <c r="I348" t="n">
-        <v>0.014142592493318</v>
-      </c>
-      <c r="J348" t="n">
-        <v>10.5220964468009</v>
-      </c>
-      <c r="K348" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -12584,15 +9440,6 @@
       <c r="H349" t="n">
         <v>1</v>
       </c>
-      <c r="I349" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J349" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K349" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -12619,15 +9466,6 @@
       <c r="H350" t="n">
         <v>1</v>
       </c>
-      <c r="I350" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J350" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K350" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -12654,15 +9492,6 @@
       <c r="H351" t="n">
         <v>1</v>
       </c>
-      <c r="I351" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J351" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K351" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -12689,15 +9518,6 @@
       <c r="H352" t="n">
         <v>1</v>
       </c>
-      <c r="I352" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J352" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K352" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -12724,15 +9544,6 @@
       <c r="H353" t="n">
         <v>1</v>
       </c>
-      <c r="I353" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J353" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K353" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -12759,15 +9570,6 @@
       <c r="H354" t="n">
         <v>1</v>
       </c>
-      <c r="I354" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J354" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K354" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -12794,15 +9596,6 @@
       <c r="H355" t="n">
         <v>1</v>
       </c>
-      <c r="I355" t="n">
-        <v>0.0178046434130263</v>
-      </c>
-      <c r="J355" t="n">
-        <v>10.5273912330359</v>
-      </c>
-      <c r="K355" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -12829,15 +9622,6 @@
       <c r="H356" t="n">
         <v>1</v>
       </c>
-      <c r="I356" t="n">
-        <v>0.0177684335284744</v>
-      </c>
-      <c r="J356" t="n">
-        <v>10.5220067769492</v>
-      </c>
-      <c r="K356" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -12864,15 +9648,6 @@
       <c r="H357" t="n">
         <v>1</v>
       </c>
-      <c r="I357" t="n">
-        <v>0.0177684335284744</v>
-      </c>
-      <c r="J357" t="n">
-        <v>10.5220067769492</v>
-      </c>
-      <c r="K357" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -12899,15 +9674,6 @@
       <c r="H358" t="n">
         <v>1</v>
       </c>
-      <c r="I358" t="n">
-        <v>0.0177684335284744</v>
-      </c>
-      <c r="J358" t="n">
-        <v>10.5220067769492</v>
-      </c>
-      <c r="K358" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -12934,15 +9700,6 @@
       <c r="H359" t="n">
         <v>1</v>
       </c>
-      <c r="I359" t="n">
-        <v>0.0177684335284744</v>
-      </c>
-      <c r="J359" t="n">
-        <v>10.5220067769492</v>
-      </c>
-      <c r="K359" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -12969,15 +9726,6 @@
       <c r="H360" t="n">
         <v>1</v>
       </c>
-      <c r="I360" t="n">
-        <v>0.0177684335284744</v>
-      </c>
-      <c r="J360" t="n">
-        <v>10.5220067769492</v>
-      </c>
-      <c r="K360" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -13004,15 +9752,6 @@
       <c r="H361" t="n">
         <v>1</v>
       </c>
-      <c r="I361" t="n">
-        <v>0.0249932456318986</v>
-      </c>
-      <c r="J361" t="n">
-        <v>10.5273910244251</v>
-      </c>
-      <c r="K361" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -13039,15 +9778,6 @@
       <c r="H362" t="n">
         <v>1</v>
       </c>
-      <c r="I362" t="n">
-        <v>0.0250652929378899</v>
-      </c>
-      <c r="J362" t="n">
-        <v>10.5242194733021</v>
-      </c>
-      <c r="K362" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -13074,15 +9804,6 @@
       <c r="H363" t="n">
         <v>1</v>
       </c>
-      <c r="I363" t="n">
-        <v>0.0250652929378899</v>
-      </c>
-      <c r="J363" t="n">
-        <v>10.5242194733021</v>
-      </c>
-      <c r="K363" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -13109,15 +9830,6 @@
       <c r="H364" t="n">
         <v>1</v>
       </c>
-      <c r="I364" t="n">
-        <v>0.0250652929378899</v>
-      </c>
-      <c r="J364" t="n">
-        <v>10.5242194733021</v>
-      </c>
-      <c r="K364" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -13144,15 +9856,6 @@
       <c r="H365" t="n">
         <v>1</v>
       </c>
-      <c r="I365" t="n">
-        <v>0.026824251963649</v>
-      </c>
-      <c r="J365" t="n">
-        <v>10.5282689618993</v>
-      </c>
-      <c r="K365" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -13179,15 +9882,6 @@
       <c r="H366" t="n">
         <v>1</v>
       </c>
-      <c r="I366" t="n">
-        <v>0.02860999101175</v>
-      </c>
-      <c r="J366" t="n">
-        <v>10.5247300163729</v>
-      </c>
-      <c r="K366" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -13214,15 +9908,6 @@
       <c r="H367" t="n">
         <v>1</v>
       </c>
-      <c r="I367" t="n">
-        <v>0.02860999101175</v>
-      </c>
-      <c r="J367" t="n">
-        <v>10.5247300163729</v>
-      </c>
-      <c r="K367" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -13249,15 +9934,6 @@
       <c r="H368" t="n">
         <v>1</v>
       </c>
-      <c r="I368" t="n">
-        <v>0.0267789240704329</v>
-      </c>
-      <c r="J368" t="n">
-        <v>10.522024422711</v>
-      </c>
-      <c r="K368" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -13284,15 +9960,6 @@
       <c r="H369" t="n">
         <v>1</v>
       </c>
-      <c r="I369" t="n">
-        <v>0.0267789240704329</v>
-      </c>
-      <c r="J369" t="n">
-        <v>10.522024422711</v>
-      </c>
-      <c r="K369" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -13319,15 +9986,6 @@
       <c r="H370" t="n">
         <v>1</v>
       </c>
-      <c r="I370" t="n">
-        <v>0.00770497511227292</v>
-      </c>
-      <c r="J370" t="n">
-        <v>10.5275937959927</v>
-      </c>
-      <c r="K370" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -13354,15 +10012,6 @@
       <c r="H371" t="n">
         <v>1</v>
       </c>
-      <c r="I371" t="n">
-        <v>0.0077377175702213</v>
-      </c>
-      <c r="J371" t="n">
-        <v>10.5277242415889</v>
-      </c>
-      <c r="K371" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -13389,15 +10038,6 @@
       <c r="H372" t="n">
         <v>1</v>
       </c>
-      <c r="I372" t="n">
-        <v>0.0077654990604031</v>
-      </c>
-      <c r="J372" t="n">
-        <v>10.5278350666082</v>
-      </c>
-      <c r="K372" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -13424,15 +10064,6 @@
       <c r="H373" t="n">
         <v>1</v>
       </c>
-      <c r="I373" t="n">
-        <v>0.00634078564221752</v>
-      </c>
-      <c r="J373" t="n">
-        <v>10.5300971028807</v>
-      </c>
-      <c r="K373" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -13459,15 +10090,6 @@
       <c r="H374" t="n">
         <v>1</v>
       </c>
-      <c r="I374" t="n">
-        <v>0.00634078564221752</v>
-      </c>
-      <c r="J374" t="n">
-        <v>10.5300971028807</v>
-      </c>
-      <c r="K374" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -13494,15 +10116,6 @@
       <c r="H375" t="n">
         <v>1</v>
       </c>
-      <c r="I375" t="n">
-        <v>-0.000901948827696842</v>
-      </c>
-      <c r="J375" t="n">
-        <v>10.5203047581423</v>
-      </c>
-      <c r="K375" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -13529,15 +10142,6 @@
       <c r="H376" t="n">
         <v>1</v>
       </c>
-      <c r="I376" t="n">
-        <v>-0.000901948827696842</v>
-      </c>
-      <c r="J376" t="n">
-        <v>10.5203047581423</v>
-      </c>
-      <c r="K376" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -13564,15 +10168,6 @@
       <c r="H377" t="n">
         <v>1</v>
       </c>
-      <c r="I377" t="n">
-        <v>0.00000901949895525399</v>
-      </c>
-      <c r="J377" t="n">
-        <v>10.5211648336098</v>
-      </c>
-      <c r="K377" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -13599,15 +10194,6 @@
       <c r="H378" t="n">
         <v>1</v>
       </c>
-      <c r="I378" t="n">
-        <v>0.00000901949895525399</v>
-      </c>
-      <c r="J378" t="n">
-        <v>10.5211648336098</v>
-      </c>
-      <c r="K378" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -13634,15 +10220,6 @@
       <c r="H379" t="n">
         <v>2</v>
       </c>
-      <c r="I379" t="n">
-        <v>-0.00179488031422092</v>
-      </c>
-      <c r="J379" t="n">
-        <v>10.5211737905414</v>
-      </c>
-      <c r="K379" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -13669,15 +10246,6 @@
       <c r="H380" t="n">
         <v>1</v>
       </c>
-      <c r="I380" t="n">
-        <v>-0.00179488031422092</v>
-      </c>
-      <c r="J380" t="n">
-        <v>10.5211737905414</v>
-      </c>
-      <c r="K380" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -13704,15 +10272,6 @@
       <c r="H381" t="n">
         <v>1</v>
       </c>
-      <c r="I381" t="n">
-        <v>-0.00179488031422092</v>
-      </c>
-      <c r="J381" t="n">
-        <v>10.5211737905414</v>
-      </c>
-      <c r="K381" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -13739,15 +10298,6 @@
       <c r="H382" t="n">
         <v>1</v>
       </c>
-      <c r="I382" t="n">
-        <v>0.0000270585328976504</v>
-      </c>
-      <c r="J382" t="n">
-        <v>10.5221324191058</v>
-      </c>
-      <c r="K382" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -13774,15 +10324,6 @@
       <c r="H383" t="n">
         <v>1</v>
       </c>
-      <c r="I383" t="n">
-        <v>0.0000270585328976504</v>
-      </c>
-      <c r="J383" t="n">
-        <v>10.5221324191058</v>
-      </c>
-      <c r="K383" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -13809,15 +10350,6 @@
       <c r="H384" t="n">
         <v>1</v>
       </c>
-      <c r="I384" t="n">
-        <v>-0.000901951052108151</v>
-      </c>
-      <c r="J384" t="n">
-        <v>10.5220965820312</v>
-      </c>
-      <c r="K384" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -13844,15 +10376,6 @@
       <c r="H385" t="n">
         <v>1</v>
       </c>
-      <c r="I385" t="n">
-        <v>-0.000901951052108151</v>
-      </c>
-      <c r="J385" t="n">
-        <v>10.5220965820312</v>
-      </c>
-      <c r="K385" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -13879,15 +10402,6 @@
       <c r="H386" t="n">
         <v>1</v>
       </c>
-      <c r="I386" t="n">
-        <v>-0.000901951052108151</v>
-      </c>
-      <c r="J386" t="n">
-        <v>10.5220965820312</v>
-      </c>
-      <c r="K386" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -13914,15 +10428,6 @@
       <c r="H387" t="n">
         <v>1</v>
       </c>
-      <c r="I387" t="n">
-        <v>-0.000901951052108151</v>
-      </c>
-      <c r="J387" t="n">
-        <v>10.5220965820312</v>
-      </c>
-      <c r="K387" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -13949,15 +10454,6 @@
       <c r="H388" t="n">
         <v>1</v>
       </c>
-      <c r="I388" t="n">
-        <v>-0.000901951052108151</v>
-      </c>
-      <c r="J388" t="n">
-        <v>10.5220965820312</v>
-      </c>
-      <c r="K388" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -13984,15 +10480,6 @@
       <c r="H389" t="n">
         <v>2</v>
       </c>
-      <c r="I389" t="n">
-        <v>-0.000901951052108151</v>
-      </c>
-      <c r="J389" t="n">
-        <v>10.5220965820312</v>
-      </c>
-      <c r="K389" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -14019,15 +10506,6 @@
       <c r="H390" t="n">
         <v>1</v>
       </c>
-      <c r="I390" t="n">
-        <v>0.0000090195210839529</v>
-      </c>
-      <c r="J390" t="n">
-        <v>10.5229477004784</v>
-      </c>
-      <c r="K390" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -14054,15 +10532,6 @@
       <c r="H391" t="n">
         <v>1</v>
       </c>
-      <c r="I391" t="n">
-        <v>0.0000090195210839529</v>
-      </c>
-      <c r="J391" t="n">
-        <v>10.5229477004784</v>
-      </c>
-      <c r="K391" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -14089,15 +10558,6 @@
       <c r="H392" t="n">
         <v>1</v>
       </c>
-      <c r="I392" t="n">
-        <v>0.0000090195210839529</v>
-      </c>
-      <c r="J392" t="n">
-        <v>10.5229477004784</v>
-      </c>
-      <c r="K392" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -14124,15 +10584,6 @@
       <c r="H393" t="n">
         <v>1</v>
       </c>
-      <c r="I393" t="n">
-        <v>-0.00178586519662825</v>
-      </c>
-      <c r="J393" t="n">
-        <v>10.5229566574548</v>
-      </c>
-      <c r="K393" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -14159,15 +10610,6 @@
       <c r="H394" t="n">
         <v>2</v>
       </c>
-      <c r="I394" t="n">
-        <v>-0.00178586519662825</v>
-      </c>
-      <c r="J394" t="n">
-        <v>10.5229566574548</v>
-      </c>
-      <c r="K394" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -14194,15 +10636,6 @@
       <c r="H395" t="n">
         <v>1</v>
       </c>
-      <c r="I395" t="n">
-        <v>-0.00178586519662825</v>
-      </c>
-      <c r="J395" t="n">
-        <v>10.5229566574548</v>
-      </c>
-      <c r="K395" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -14229,15 +10662,6 @@
       <c r="H396" t="n">
         <v>1</v>
       </c>
-      <c r="I396" t="n">
-        <v>-0.000883914210124103</v>
-      </c>
-      <c r="J396" t="n">
-        <v>10.5238884103601</v>
-      </c>
-      <c r="K396" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -14264,15 +10688,6 @@
       <c r="H397" t="n">
         <v>1</v>
       </c>
-      <c r="I397" t="n">
-        <v>-0.000883914210124103</v>
-      </c>
-      <c r="J397" t="n">
-        <v>10.5238884103601</v>
-      </c>
-      <c r="K397" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -14299,15 +10714,6 @@
       <c r="H398" t="n">
         <v>1</v>
       </c>
-      <c r="I398" t="n">
-        <v>-0.000883914210124103</v>
-      </c>
-      <c r="J398" t="n">
-        <v>10.5238884103601</v>
-      </c>
-      <c r="K398" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -14334,15 +10740,6 @@
       <c r="H399" t="n">
         <v>1</v>
       </c>
-      <c r="I399" t="n">
-        <v>-0.00260664458108174</v>
-      </c>
-      <c r="J399" t="n">
-        <v>10.5237808964564</v>
-      </c>
-      <c r="K399" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -14369,15 +10766,6 @@
       <c r="H400" t="n">
         <v>1</v>
       </c>
-      <c r="I400" t="n">
-        <v>-0.00260664458108174</v>
-      </c>
-      <c r="J400" t="n">
-        <v>10.5237808964564</v>
-      </c>
-      <c r="K400" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -14404,15 +10792,6 @@
       <c r="H401" t="n">
         <v>1</v>
       </c>
-      <c r="I401" t="n">
-        <v>-0.00260664458108174</v>
-      </c>
-      <c r="J401" t="n">
-        <v>10.5237808964564</v>
-      </c>
-      <c r="K401" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -14439,15 +10818,6 @@
       <c r="H402" t="n">
         <v>1</v>
       </c>
-      <c r="I402" t="n">
-        <v>-0.00260664458108174</v>
-      </c>
-      <c r="J402" t="n">
-        <v>10.5237808964564</v>
-      </c>
-      <c r="K402" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -14474,15 +10844,6 @@
       <c r="H403" t="n">
         <v>1</v>
       </c>
-      <c r="I403" t="n">
-        <v>-0.00090195429816358</v>
-      </c>
-      <c r="J403" t="n">
-        <v>10.5247126528427</v>
-      </c>
-      <c r="K403" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -14509,15 +10870,6 @@
       <c r="H404" t="n">
         <v>1</v>
       </c>
-      <c r="I404" t="n">
-        <v>-0.00090195429816358</v>
-      </c>
-      <c r="J404" t="n">
-        <v>10.5247126528427</v>
-      </c>
-      <c r="K404" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -14544,15 +10896,6 @@
       <c r="H405" t="n">
         <v>1</v>
       </c>
-      <c r="I405" t="n">
-        <v>-0.00090195429816358</v>
-      </c>
-      <c r="J405" t="n">
-        <v>10.5247126528427</v>
-      </c>
-      <c r="K405" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -14579,15 +10922,6 @@
       <c r="H406" t="n">
         <v>2</v>
       </c>
-      <c r="I406" t="n">
-        <v>-0.00090195429816358</v>
-      </c>
-      <c r="J406" t="n">
-        <v>10.5247126528427</v>
-      </c>
-      <c r="K406" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -14614,15 +10948,6 @@
       <c r="H407" t="n">
         <v>1</v>
       </c>
-      <c r="I407" t="n">
-        <v>-0.00182194768228438</v>
-      </c>
-      <c r="J407" t="n">
-        <v>10.5247126511424</v>
-      </c>
-      <c r="K407" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -14649,15 +10974,6 @@
       <c r="H408" t="n">
         <v>1</v>
       </c>
-      <c r="I408" t="n">
-        <v>-0.00182194768228438</v>
-      </c>
-      <c r="J408" t="n">
-        <v>10.5247126511424</v>
-      </c>
-      <c r="K408" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -14684,15 +11000,6 @@
       <c r="H409" t="n">
         <v>1</v>
       </c>
-      <c r="I409" t="n">
-        <v>-0.00182194768228438</v>
-      </c>
-      <c r="J409" t="n">
-        <v>10.5247126511424</v>
-      </c>
-      <c r="K409" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -14719,15 +11026,6 @@
       <c r="H410" t="n">
         <v>1</v>
       </c>
-      <c r="I410" t="n">
-        <v>-0.00268782374226858</v>
-      </c>
-      <c r="J410" t="n">
-        <v>10.5246947301678</v>
-      </c>
-      <c r="K410" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -14754,15 +11052,6 @@
       <c r="H411" t="n">
         <v>1</v>
       </c>
-      <c r="I411" t="n">
-        <v>-0.00268782374226858</v>
-      </c>
-      <c r="J411" t="n">
-        <v>10.5246947301678</v>
-      </c>
-      <c r="K411" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -14789,15 +11078,6 @@
       <c r="H412" t="n">
         <v>1</v>
       </c>
-      <c r="I412" t="n">
-        <v>0.00965093452940314</v>
-      </c>
-      <c r="J412" t="n">
-        <v>10.5264865066115</v>
-      </c>
-      <c r="K412" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -14824,15 +11104,6 @@
       <c r="H413" t="n">
         <v>1</v>
       </c>
-      <c r="I413" t="n">
-        <v>0.00965093452940314</v>
-      </c>
-      <c r="J413" t="n">
-        <v>10.5264865066115</v>
-      </c>
-      <c r="K413" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -14859,15 +11130,6 @@
       <c r="H414" t="n">
         <v>1</v>
       </c>
-      <c r="I414" t="n">
-        <v>0.0105528910272232</v>
-      </c>
-      <c r="J414" t="n">
-        <v>10.5264864942526</v>
-      </c>
-      <c r="K414" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -14894,15 +11156,6 @@
       <c r="H415" t="n">
         <v>1</v>
       </c>
-      <c r="I415" t="n">
-        <v>0.0105528910272232</v>
-      </c>
-      <c r="J415" t="n">
-        <v>10.5264864942526</v>
-      </c>
-      <c r="K415" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -14929,15 +11182,6 @@
       <c r="H416" t="n">
         <v>1</v>
       </c>
-      <c r="I416" t="n">
-        <v>0.0096329072627195</v>
-      </c>
-      <c r="J416" t="n">
-        <v>10.5273824258702</v>
-      </c>
-      <c r="K416" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -14964,15 +11208,6 @@
       <c r="H417" t="n">
         <v>1</v>
       </c>
-      <c r="I417" t="n">
-        <v>0.0096329072627195</v>
-      </c>
-      <c r="J417" t="n">
-        <v>10.5273824258702</v>
-      </c>
-      <c r="K417" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -14999,15 +11234,6 @@
       <c r="H418" t="n">
         <v>1</v>
       </c>
-      <c r="I418" t="n">
-        <v>0.0114999595124764</v>
-      </c>
-      <c r="J418" t="n">
-        <v>10.5273823991164</v>
-      </c>
-      <c r="K418" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -15034,15 +11260,6 @@
       <c r="H419" t="n">
         <v>1</v>
       </c>
-      <c r="I419" t="n">
-        <v>0.0114999595124764</v>
-      </c>
-      <c r="J419" t="n">
-        <v>10.5273823991164</v>
-      </c>
-      <c r="K419" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -15069,15 +11286,6 @@
       <c r="H420" t="n">
         <v>1</v>
       </c>
-      <c r="I420" t="n">
-        <v>0.00454587189045299</v>
-      </c>
-      <c r="J420" t="n">
-        <v>10.5282694356874</v>
-      </c>
-      <c r="K420" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -15104,15 +11312,6 @@
       <c r="H421" t="n">
         <v>1</v>
       </c>
-      <c r="I421" t="n">
-        <v>0.00454587189045299</v>
-      </c>
-      <c r="J421" t="n">
-        <v>10.5282694356874</v>
-      </c>
-      <c r="K421" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -15139,15 +11338,6 @@
       <c r="H422" t="n">
         <v>1</v>
       </c>
-      <c r="I422" t="n">
-        <v>0.00544783053173896</v>
-      </c>
-      <c r="J422" t="n">
-        <v>10.5282604703701</v>
-      </c>
-      <c r="K422" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -15174,15 +11364,6 @@
       <c r="H423" t="n">
         <v>1</v>
       </c>
-      <c r="I423" t="n">
-        <v>0.00544783053173896</v>
-      </c>
-      <c r="J423" t="n">
-        <v>10.5282604703701</v>
-      </c>
-      <c r="K423" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -15209,15 +11390,6 @@
       <c r="H424" t="n">
         <v>1</v>
       </c>
-      <c r="I424" t="n">
-        <v>0.00634076964198515</v>
-      </c>
-      <c r="J424" t="n">
-        <v>10.5282604632339</v>
-      </c>
-      <c r="K424" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -15244,15 +11416,6 @@
       <c r="H425" t="n">
         <v>1</v>
       </c>
-      <c r="I425" t="n">
-        <v>0.00634076964198515</v>
-      </c>
-      <c r="J425" t="n">
-        <v>10.5282604632339</v>
-      </c>
-      <c r="K425" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -15279,15 +11442,6 @@
       <c r="H426" t="n">
         <v>1</v>
       </c>
-      <c r="I426" t="n">
-        <v>0.00720664981382349</v>
-      </c>
-      <c r="J426" t="n">
-        <v>10.5282425368687</v>
-      </c>
-      <c r="K426" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -15314,15 +11468,6 @@
       <c r="H427" t="n">
         <v>1</v>
       </c>
-      <c r="I427" t="n">
-        <v>0.00720664981382349</v>
-      </c>
-      <c r="J427" t="n">
-        <v>10.5282425368687</v>
-      </c>
-      <c r="K427" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -15349,15 +11494,6 @@
       <c r="H428" t="n">
         <v>1</v>
       </c>
-      <c r="I428" t="n">
-        <v>0.00808154943000424</v>
-      </c>
-      <c r="J428" t="n">
-        <v>10.5282156501825</v>
-      </c>
-      <c r="K428" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -15384,15 +11520,6 @@
       <c r="H429" t="n">
         <v>1</v>
       </c>
-      <c r="I429" t="n">
-        <v>0.00808154943000424</v>
-      </c>
-      <c r="J429" t="n">
-        <v>10.5282156501825</v>
-      </c>
-      <c r="K429" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -15419,15 +11546,6 @@
       <c r="H430" t="n">
         <v>1</v>
       </c>
-      <c r="I430" t="n">
-        <v>0.00874899957877186</v>
-      </c>
-      <c r="J430" t="n">
-        <v>10.5282783570114</v>
-      </c>
-      <c r="K430" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -15454,15 +11572,6 @@
       <c r="H431" t="n">
         <v>1</v>
       </c>
-      <c r="I431" t="n">
-        <v>0.00874899957877186</v>
-      </c>
-      <c r="J431" t="n">
-        <v>10.5282783570114</v>
-      </c>
-      <c r="K431" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -15489,15 +11598,6 @@
       <c r="H432" t="n">
         <v>1</v>
       </c>
-      <c r="I432" t="n">
-        <v>0.00874899957877186</v>
-      </c>
-      <c r="J432" t="n">
-        <v>10.5282783570114</v>
-      </c>
-      <c r="K432" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -15524,15 +11624,6 @@
       <c r="H433" t="n">
         <v>1</v>
       </c>
-      <c r="I433" t="n">
-        <v>0.0096509582980205</v>
-      </c>
-      <c r="J433" t="n">
-        <v>10.5282783457605</v>
-      </c>
-      <c r="K433" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -15559,15 +11650,6 @@
       <c r="H434" t="n">
         <v>1</v>
       </c>
-      <c r="I434" t="n">
-        <v>0.0096509582980205</v>
-      </c>
-      <c r="J434" t="n">
-        <v>10.5282783457605</v>
-      </c>
-      <c r="K434" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -15594,15 +11676,6 @@
       <c r="H435" t="n">
         <v>1</v>
       </c>
-      <c r="I435" t="n">
-        <v>0.0096509582980205</v>
-      </c>
-      <c r="J435" t="n">
-        <v>10.5282783457605</v>
-      </c>
-      <c r="K435" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -15629,15 +11702,6 @@
       <c r="H436" t="n">
         <v>1</v>
       </c>
-      <c r="I436" t="n">
-        <v>0.0105529170172067</v>
-      </c>
-      <c r="J436" t="n">
-        <v>10.5282783334066</v>
-      </c>
-      <c r="K436" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -15664,15 +11728,6 @@
       <c r="H437" t="n">
         <v>1</v>
       </c>
-      <c r="I437" t="n">
-        <v>0.0105529170172067</v>
-      </c>
-      <c r="J437" t="n">
-        <v>10.5282783334066</v>
-      </c>
-      <c r="K437" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -15699,15 +11754,6 @@
       <c r="H438" t="n">
         <v>1</v>
       </c>
-      <c r="I438" t="n">
-        <v>0.0105529170172067</v>
-      </c>
-      <c r="J438" t="n">
-        <v>10.5282783334066</v>
-      </c>
-      <c r="K438" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -15734,15 +11780,6 @@
       <c r="H439" t="n">
         <v>1</v>
       </c>
-      <c r="I439" t="n">
-        <v>0.0114819333669931</v>
-      </c>
-      <c r="J439" t="n">
-        <v>10.5282066458778</v>
-      </c>
-      <c r="K439" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -15769,15 +11806,6 @@
       <c r="H440" t="n">
         <v>1</v>
       </c>
-      <c r="I440" t="n">
-        <v>0.0114819333669931</v>
-      </c>
-      <c r="J440" t="n">
-        <v>10.5282066458778</v>
-      </c>
-      <c r="K440" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -15804,15 +11832,6 @@
       <c r="H441" t="n">
         <v>2</v>
       </c>
-      <c r="I441" t="n">
-        <v>0.0114819333669931</v>
-      </c>
-      <c r="J441" t="n">
-        <v>10.5282066458778</v>
-      </c>
-      <c r="K441" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -15839,15 +11858,6 @@
       <c r="H442" t="n">
         <v>1</v>
       </c>
-      <c r="I442" t="n">
-        <v>0.00365293722111923</v>
-      </c>
-      <c r="J442" t="n">
-        <v>10.5291564026404</v>
-      </c>
-      <c r="K442" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -15874,15 +11884,6 @@
       <c r="H443" t="n">
         <v>1</v>
       </c>
-      <c r="I443" t="n">
-        <v>0.00365293722111923</v>
-      </c>
-      <c r="J443" t="n">
-        <v>10.5291564026404</v>
-      </c>
-      <c r="K443" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -15909,15 +11910,6 @@
       <c r="H444" t="n">
         <v>1</v>
       </c>
-      <c r="I444" t="n">
-        <v>0.00456391662683453</v>
-      </c>
-      <c r="J444" t="n">
-        <v>10.5291563975669</v>
-      </c>
-      <c r="K444" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -15944,15 +11936,6 @@
       <c r="H445" t="n">
         <v>1</v>
       </c>
-      <c r="I445" t="n">
-        <v>0.00456391662683453</v>
-      </c>
-      <c r="J445" t="n">
-        <v>10.5291563975669</v>
-      </c>
-      <c r="K445" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -15979,15 +11962,6 @@
       <c r="H446" t="n">
         <v>1</v>
       </c>
-      <c r="I446" t="n">
-        <v>0.00634077791609003</v>
-      </c>
-      <c r="J446" t="n">
-        <v>10.5292101397409</v>
-      </c>
-      <c r="K446" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -16014,15 +11988,6 @@
       <c r="H447" t="n">
         <v>1</v>
       </c>
-      <c r="I447" t="n">
-        <v>0.00634077791609003</v>
-      </c>
-      <c r="J447" t="n">
-        <v>10.5292101397409</v>
-      </c>
-      <c r="K447" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -16049,15 +12014,6 @@
       <c r="H448" t="n">
         <v>1</v>
       </c>
-      <c r="I448" t="n">
-        <v>0.00721567890519587</v>
-      </c>
-      <c r="J448" t="n">
-        <v>10.5292011724839</v>
-      </c>
-      <c r="K448" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -16084,15 +12040,6 @@
       <c r="H449" t="n">
         <v>1</v>
       </c>
-      <c r="I449" t="n">
-        <v>0.00721567890519587</v>
-      </c>
-      <c r="J449" t="n">
-        <v>10.5292011724839</v>
-      </c>
-      <c r="K449" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -16119,15 +12066,6 @@
       <c r="H450" t="n">
         <v>1</v>
       </c>
-      <c r="I450" t="n">
-        <v>0.00811763846843214</v>
-      </c>
-      <c r="J450" t="n">
-        <v>10.5291742854562</v>
-      </c>
-      <c r="K450" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -16154,15 +12092,6 @@
       <c r="H451" t="n">
         <v>1</v>
       </c>
-      <c r="I451" t="n">
-        <v>0.00811763846843214</v>
-      </c>
-      <c r="J451" t="n">
-        <v>10.5291742854562</v>
-      </c>
-      <c r="K451" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -16189,15 +12118,6 @@
       <c r="H452" t="n">
         <v>1</v>
       </c>
-      <c r="I452" t="n">
-        <v>0.00366196132634698</v>
-      </c>
-      <c r="J452" t="n">
-        <v>10.5300523248949</v>
-      </c>
-      <c r="K452" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -16224,15 +12144,6 @@
       <c r="H453" t="n">
         <v>2</v>
       </c>
-      <c r="I453" t="n">
-        <v>0.00366196132634698</v>
-      </c>
-      <c r="J453" t="n">
-        <v>10.5300523248949</v>
-      </c>
-      <c r="K453" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -16259,15 +12170,6 @@
       <c r="H454" t="n">
         <v>1</v>
       </c>
-      <c r="I454" t="n">
-        <v>-0.00130783210461406</v>
-      </c>
-      <c r="J454" t="n">
-        <v>10.5238077773609</v>
-      </c>
-      <c r="K454" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -16294,15 +12196,6 @@
       <c r="H455" t="n">
         <v>1</v>
       </c>
-      <c r="I455" t="n">
-        <v>-0.00130783210461406</v>
-      </c>
-      <c r="J455" t="n">
-        <v>10.5238077773609</v>
-      </c>
-      <c r="K455" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -16329,15 +12222,6 @@
       <c r="H456" t="n">
         <v>2</v>
       </c>
-      <c r="I456" t="n">
-        <v>-0.00130783210461406</v>
-      </c>
-      <c r="J456" t="n">
-        <v>10.5238077773609</v>
-      </c>
-      <c r="K456" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -16364,15 +12248,6 @@
       <c r="H457" t="n">
         <v>2</v>
       </c>
-      <c r="I457" t="n">
-        <v>-0.00130783210461406</v>
-      </c>
-      <c r="J457" t="n">
-        <v>10.5238077773609</v>
-      </c>
-      <c r="K457" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -16399,15 +12274,6 @@
       <c r="H458" t="n">
         <v>1</v>
       </c>
-      <c r="I458" t="n">
-        <v>-0.00315683607564633</v>
-      </c>
-      <c r="J458" t="n">
-        <v>10.5237988126073</v>
-      </c>
-      <c r="K458" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -16434,15 +12300,6 @@
       <c r="H459" t="n">
         <v>1</v>
       </c>
-      <c r="I459" t="n">
-        <v>-0.00315683607564633</v>
-      </c>
-      <c r="J459" t="n">
-        <v>10.5237988126073</v>
-      </c>
-      <c r="K459" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -16469,15 +12326,6 @@
       <c r="H460" t="n">
         <v>2</v>
       </c>
-      <c r="I460" t="n">
-        <v>-0.00315683607564633</v>
-      </c>
-      <c r="J460" t="n">
-        <v>10.5237988126073</v>
-      </c>
-      <c r="K460" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -16504,15 +12352,6 @@
       <c r="H461" t="n">
         <v>2</v>
       </c>
-      <c r="I461" t="n">
-        <v>-0.000910974952265486</v>
-      </c>
-      <c r="J461" t="n">
-        <v>10.5255996104832</v>
-      </c>
-      <c r="K461" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -16539,15 +12378,6 @@
       <c r="H462" t="n">
         <v>2</v>
       </c>
-      <c r="I462" t="n">
-        <v>-0.000910974952265486</v>
-      </c>
-      <c r="J462" t="n">
-        <v>10.5255996104832</v>
-      </c>
-      <c r="K462" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -16574,15 +12404,6 @@
       <c r="H463" t="n">
         <v>1</v>
       </c>
-      <c r="I463" t="n">
-        <v>-0.00134391190426196</v>
-      </c>
-      <c r="J463" t="n">
-        <v>10.5247126521692</v>
-      </c>
-      <c r="K463" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -16609,15 +12430,6 @@
       <c r="H464" t="n">
         <v>2</v>
       </c>
-      <c r="I464" t="n">
-        <v>-0.00134391190426196</v>
-      </c>
-      <c r="J464" t="n">
-        <v>10.5247126521692</v>
-      </c>
-      <c r="K464" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -16644,15 +12456,6 @@
       <c r="H465" t="n">
         <v>2</v>
       </c>
-      <c r="I465" t="n">
-        <v>-0.00134391190426196</v>
-      </c>
-      <c r="J465" t="n">
-        <v>10.5247126521692</v>
-      </c>
-      <c r="K465" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -16679,15 +12482,6 @@
       <c r="H466" t="n">
         <v>2</v>
       </c>
-      <c r="I466" t="n">
-        <v>-0.00134391190426196</v>
-      </c>
-      <c r="J466" t="n">
-        <v>10.5247126521692</v>
-      </c>
-      <c r="K466" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -16714,15 +12508,6 @@
       <c r="H467" t="n">
         <v>1</v>
       </c>
-      <c r="I467" t="n">
-        <v>-0.00134391190426196</v>
-      </c>
-      <c r="J467" t="n">
-        <v>10.5247126521692</v>
-      </c>
-      <c r="K467" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -16749,15 +12534,6 @@
       <c r="H468" t="n">
         <v>1</v>
       </c>
-      <c r="I468" t="n">
-        <v>-0.00130782904167903</v>
-      </c>
-      <c r="J468" t="n">
-        <v>10.5221055405529</v>
-      </c>
-      <c r="K468" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -16784,15 +12560,6 @@
       <c r="H469" t="n">
         <v>1</v>
       </c>
-      <c r="I469" t="n">
-        <v>-0.00130782904167903</v>
-      </c>
-      <c r="J469" t="n">
-        <v>10.5221055405529</v>
-      </c>
-      <c r="K469" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -16819,15 +12586,6 @@
       <c r="H470" t="n">
         <v>1</v>
       </c>
-      <c r="I470" t="n">
-        <v>-0.00130782904167903</v>
-      </c>
-      <c r="J470" t="n">
-        <v>10.5221055405529</v>
-      </c>
-      <c r="K470" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -16854,15 +12612,6 @@
       <c r="H471" t="n">
         <v>1</v>
       </c>
-      <c r="I471" t="n">
-        <v>-0.00130782904167903</v>
-      </c>
-      <c r="J471" t="n">
-        <v>10.5221055405529</v>
-      </c>
-      <c r="K471" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -16889,15 +12638,6 @@
       <c r="H472" t="n">
         <v>2</v>
       </c>
-      <c r="I472" t="n">
-        <v>-0.00130782904167903</v>
-      </c>
-      <c r="J472" t="n">
-        <v>10.5221055405529</v>
-      </c>
-      <c r="K472" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -16924,15 +12664,6 @@
       <c r="H473" t="n">
         <v>1</v>
       </c>
-      <c r="I473" t="n">
-        <v>-0.0031568286823402</v>
-      </c>
-      <c r="J473" t="n">
-        <v>10.5220965758181</v>
-      </c>
-      <c r="K473" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -16959,15 +12690,6 @@
       <c r="H474" t="n">
         <v>1</v>
       </c>
-      <c r="I474" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J474" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K474" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -16994,15 +12716,6 @@
       <c r="H475" t="n">
         <v>1</v>
       </c>
-      <c r="I475" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J475" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K475" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -17029,15 +12742,6 @@
       <c r="H476" t="n">
         <v>1</v>
       </c>
-      <c r="I476" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J476" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K476" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -17064,15 +12768,6 @@
       <c r="H477" t="n">
         <v>1</v>
       </c>
-      <c r="I477" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J477" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K477" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -17099,15 +12794,6 @@
       <c r="H478" t="n">
         <v>1</v>
       </c>
-      <c r="I478" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J478" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K478" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -17134,15 +12820,6 @@
       <c r="H479" t="n">
         <v>1</v>
       </c>
-      <c r="I479" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J479" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K479" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -17169,15 +12846,6 @@
       <c r="H480" t="n">
         <v>1</v>
       </c>
-      <c r="I480" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J480" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K480" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -17204,15 +12872,6 @@
       <c r="H481" t="n">
         <v>1</v>
       </c>
-      <c r="I481" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J481" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K481" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -17239,15 +12898,6 @@
       <c r="H482" t="n">
         <v>1</v>
       </c>
-      <c r="I482" t="n">
-        <v>0.00270587948968752</v>
-      </c>
-      <c r="J482" t="n">
-        <v>10.5291743251574</v>
-      </c>
-      <c r="K482" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -17274,15 +12924,6 @@
       <c r="H483" t="n">
         <v>1</v>
       </c>
-      <c r="I483" t="n">
-        <v>0.0123567355048277</v>
-      </c>
-      <c r="J483" t="n">
-        <v>10.522454844244</v>
-      </c>
-      <c r="K483" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -17309,15 +12950,6 @@
       <c r="H484" t="n">
         <v>1</v>
       </c>
-      <c r="I484" t="n">
-        <v>0.0123567355048277</v>
-      </c>
-      <c r="J484" t="n">
-        <v>10.522454844244</v>
-      </c>
-      <c r="K484" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -17344,15 +12976,6 @@
       <c r="H485" t="n">
         <v>1</v>
       </c>
-      <c r="I485" t="n">
-        <v>0.0123567355048277</v>
-      </c>
-      <c r="J485" t="n">
-        <v>10.522454844244</v>
-      </c>
-      <c r="K485" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -17379,15 +13002,6 @@
       <c r="H486" t="n">
         <v>1</v>
       </c>
-      <c r="I486" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J486" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K486" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -17414,15 +13028,6 @@
       <c r="H487" t="n">
         <v>1</v>
       </c>
-      <c r="I487" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J487" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K487" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -17449,15 +13054,6 @@
       <c r="H488" t="n">
         <v>1</v>
       </c>
-      <c r="I488" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J488" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K488" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -17484,15 +13080,6 @@
       <c r="H489" t="n">
         <v>1</v>
       </c>
-      <c r="I489" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J489" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K489" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -17519,15 +13106,6 @@
       <c r="H490" t="n">
         <v>1</v>
       </c>
-      <c r="I490" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J490" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K490" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -17554,15 +13132,6 @@
       <c r="H491" t="n">
         <v>1</v>
       </c>
-      <c r="I491" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J491" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K491" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -17589,15 +13158,6 @@
       <c r="H492" t="n">
         <v>1</v>
       </c>
-      <c r="I492" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J492" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K492" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -17624,15 +13184,6 @@
       <c r="H493" t="n">
         <v>1</v>
       </c>
-      <c r="I493" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J493" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K493" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -17659,15 +13210,6 @@
       <c r="H494" t="n">
         <v>1</v>
       </c>
-      <c r="I494" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J494" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K494" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -17694,15 +13236,6 @@
       <c r="H495" t="n">
         <v>1</v>
       </c>
-      <c r="I495" t="n">
-        <v>0.01325876052025</v>
-      </c>
-      <c r="J495" t="n">
-        <v>10.5264864505554</v>
-      </c>
-      <c r="K495" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -17729,15 +13262,6 @@
       <c r="H496" t="n">
         <v>1</v>
       </c>
-      <c r="I496" t="n">
-        <v>0.0150626735151818</v>
-      </c>
-      <c r="J496" t="n">
-        <v>10.5264864159065</v>
-      </c>
-      <c r="K496" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -17764,15 +13288,6 @@
       <c r="H497" t="n">
         <v>1</v>
       </c>
-      <c r="I497" t="n">
-        <v>0.0150626735151818</v>
-      </c>
-      <c r="J497" t="n">
-        <v>10.5264864159065</v>
-      </c>
-      <c r="K497" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -17799,15 +13314,6 @@
       <c r="H498" t="n">
         <v>1</v>
       </c>
-      <c r="I498" t="n">
-        <v>0.0150626735151818</v>
-      </c>
-      <c r="J498" t="n">
-        <v>10.5264864159065</v>
-      </c>
-      <c r="K498" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -17834,15 +13340,6 @@
       <c r="H499" t="n">
         <v>1</v>
       </c>
-      <c r="I499" t="n">
-        <v>0.0150626735151818</v>
-      </c>
-      <c r="J499" t="n">
-        <v>10.5264864159065</v>
-      </c>
-      <c r="K499" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -17869,15 +13366,6 @@
       <c r="H500" t="n">
         <v>1</v>
       </c>
-      <c r="I500" t="n">
-        <v>0.0150626735151818</v>
-      </c>
-      <c r="J500" t="n">
-        <v>10.5264864159065</v>
-      </c>
-      <c r="K500" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -17904,15 +13392,6 @@
       <c r="H501" t="n">
         <v>1</v>
       </c>
-      <c r="I501" t="n">
-        <v>0.0027058828200816</v>
-      </c>
-      <c r="J501" t="n">
-        <v>10.5300702474778</v>
-      </c>
-      <c r="K501" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -17939,15 +13418,6 @@
       <c r="H502" t="n">
         <v>1</v>
       </c>
-      <c r="I502" t="n">
-        <v>0.0027058828200816</v>
-      </c>
-      <c r="J502" t="n">
-        <v>10.5300702474778</v>
-      </c>
-      <c r="K502" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -17974,15 +13444,6 @@
       <c r="H503" t="n">
         <v>1</v>
       </c>
-      <c r="I503" t="n">
-        <v>0.0027058828200816</v>
-      </c>
-      <c r="J503" t="n">
-        <v>10.5300702474778</v>
-      </c>
-      <c r="K503" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -18009,15 +13470,6 @@
       <c r="H504" t="n">
         <v>1</v>
       </c>
-      <c r="I504" t="n">
-        <v>0.0168665865097236</v>
-      </c>
-      <c r="J504" t="n">
-        <v>10.5264863768438</v>
-      </c>
-      <c r="K504" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -18044,15 +13496,6 @@
       <c r="H505" t="n">
         <v>1</v>
       </c>
-      <c r="I505" t="n">
-        <v>0.0168665865097236</v>
-      </c>
-      <c r="J505" t="n">
-        <v>10.5264863768438</v>
-      </c>
-      <c r="K505" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -18079,15 +13522,6 @@
       <c r="H506" t="n">
         <v>1</v>
       </c>
-      <c r="I506" t="n">
-        <v>0.0168665865097236</v>
-      </c>
-      <c r="J506" t="n">
-        <v>10.5264863768438</v>
-      </c>
-      <c r="K506" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -18114,15 +13548,6 @@
       <c r="H507" t="n">
         <v>1</v>
       </c>
-      <c r="I507" t="n">
-        <v>0.0141606123082686</v>
-      </c>
-      <c r="J507" t="n">
-        <v>10.5211109427389</v>
-      </c>
-      <c r="K507" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -18149,15 +13574,6 @@
       <c r="H508" t="n">
         <v>1</v>
       </c>
-      <c r="I508" t="n">
-        <v>0.0141606123082686</v>
-      </c>
-      <c r="J508" t="n">
-        <v>10.5211109427389</v>
-      </c>
-      <c r="K508" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -18184,15 +13600,6 @@
       <c r="H509" t="n">
         <v>1</v>
       </c>
-      <c r="I509" t="n">
-        <v>0.0141606123082686</v>
-      </c>
-      <c r="J509" t="n">
-        <v>10.5211109427389</v>
-      </c>
-      <c r="K509" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -18219,15 +13626,6 @@
       <c r="H510" t="n">
         <v>1</v>
       </c>
-      <c r="I510" t="n">
-        <v>0.0186703384219628</v>
-      </c>
-      <c r="J510" t="n">
-        <v>10.5202149308753</v>
-      </c>
-      <c r="K510" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -18254,15 +13652,6 @@
       <c r="H511" t="n">
         <v>1</v>
       </c>
-      <c r="I511" t="n">
-        <v>0.0186703384219628</v>
-      </c>
-      <c r="J511" t="n">
-        <v>10.5202149308753</v>
-      </c>
-      <c r="K511" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -18289,15 +13678,6 @@
       <c r="H512" t="n">
         <v>1</v>
       </c>
-      <c r="I512" t="n">
-        <v>0.0186703384219628</v>
-      </c>
-      <c r="J512" t="n">
-        <v>10.5202149308753</v>
-      </c>
-      <c r="K512" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -18324,15 +13704,6 @@
       <c r="H513" t="n">
         <v>1</v>
       </c>
-      <c r="I513" t="n">
-        <v>0.0186703384219628</v>
-      </c>
-      <c r="J513" t="n">
-        <v>10.5202149308753</v>
-      </c>
-      <c r="K513" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -18359,15 +13730,6 @@
       <c r="H514" t="n">
         <v>1</v>
       </c>
-      <c r="I514" t="n">
-        <v>0.0186703384219628</v>
-      </c>
-      <c r="J514" t="n">
-        <v>10.5202149308753</v>
-      </c>
-      <c r="K514" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -18394,15 +13756,6 @@
       <c r="H515" t="n">
         <v>1</v>
       </c>
-      <c r="I515" t="n">
-        <v>0.0186703384219628</v>
-      </c>
-      <c r="J515" t="n">
-        <v>10.5202149308753</v>
-      </c>
-      <c r="K515" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -18429,15 +13782,6 @@
       <c r="H516" t="n">
         <v>1</v>
       </c>
-      <c r="I516" t="n">
-        <v>0.0105528944740889</v>
-      </c>
-      <c r="J516" t="n">
-        <v>10.5267240918707</v>
-      </c>
-      <c r="K516" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -18464,15 +13808,6 @@
       <c r="H517" t="n">
         <v>1</v>
       </c>
-      <c r="I517" t="n">
-        <v>0.00874899590664822</v>
-      </c>
-      <c r="J517" t="n">
-        <v>10.5279729377172</v>
-      </c>
-      <c r="K517" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -18499,15 +13834,6 @@
       <c r="H518" t="n">
         <v>1</v>
       </c>
-      <c r="I518" t="n">
-        <v>0.00874899704956816</v>
-      </c>
-      <c r="J518" t="n">
-        <v>10.5280679948672</v>
-      </c>
-      <c r="K518" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -18534,15 +13860,6 @@
       <c r="H519" t="n">
         <v>1</v>
       </c>
-      <c r="I519" t="n">
-        <v>0.00874898687123883</v>
-      </c>
-      <c r="J519" t="n">
-        <v>10.5272215297501</v>
-      </c>
-      <c r="K519" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -18569,15 +13886,6 @@
       <c r="H520" t="n">
         <v>1</v>
       </c>
-      <c r="I520" t="n">
-        <v>0.0081176211310178</v>
-      </c>
-      <c r="J520" t="n">
-        <v>10.5276200420173</v>
-      </c>
-      <c r="K520" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -18604,15 +13912,6 @@
       <c r="H521" t="n">
         <v>1</v>
       </c>
-      <c r="I521" t="n">
-        <v>0.00811762325104429</v>
-      </c>
-      <c r="J521" t="n">
-        <v>10.5278100666451</v>
-      </c>
-      <c r="K521" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -18639,15 +13938,6 @@
       <c r="H522" t="n">
         <v>1</v>
       </c>
-      <c r="I522" t="n">
-        <v>0.00811762455540092</v>
-      </c>
-      <c r="J522" t="n">
-        <v>10.5279269842272</v>
-      </c>
-      <c r="K522" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -18674,15 +13964,6 @@
       <c r="H523" t="n">
         <v>1</v>
       </c>
-      <c r="I523" t="n">
-        <v>0.0141607267685889</v>
-      </c>
-      <c r="J523" t="n">
-        <v>10.5269873419805</v>
-      </c>
-      <c r="K523" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -18709,15 +13990,6 @@
       <c r="H524" t="n">
         <v>1</v>
       </c>
-      <c r="I524" t="n">
-        <v>0.0141607286188739</v>
-      </c>
-      <c r="J524" t="n">
-        <v>10.5270823990034</v>
-      </c>
-      <c r="K524" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -18744,15 +14016,6 @@
       <c r="H525" t="n">
         <v>1</v>
       </c>
-      <c r="I525" t="n">
-        <v>0.0141607304673762</v>
-      </c>
-      <c r="J525" t="n">
-        <v>10.5271773664469</v>
-      </c>
-      <c r="K525" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -18779,15 +14042,6 @@
       <c r="H526" t="n">
         <v>1</v>
       </c>
-      <c r="I526" t="n">
-        <v>0.00867042416531691</v>
-      </c>
-      <c r="J526" t="n">
-        <v>10.5270356274317</v>
-      </c>
-      <c r="K526" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -18814,15 +14068,6 @@
       <c r="H527" t="n">
         <v>1</v>
       </c>
-      <c r="I527" t="n">
-        <v>0.00873834235119987</v>
-      </c>
-      <c r="J527" t="n">
-        <v>10.5271030893447</v>
-      </c>
-      <c r="K527" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -18849,15 +14094,6 @@
       <c r="H528" t="n">
         <v>1</v>
       </c>
-      <c r="I528" t="n">
-        <v>0.0088062605496665</v>
-      </c>
-      <c r="J528" t="n">
-        <v>10.5271705512577</v>
-      </c>
-      <c r="K528" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -18884,15 +14120,6 @@
       <c r="H529" t="n">
         <v>1</v>
       </c>
-      <c r="I529" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J529" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K529" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -18919,15 +14146,6 @@
       <c r="H530" t="n">
         <v>1</v>
       </c>
-      <c r="I530" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J530" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K530" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -18954,15 +14172,6 @@
       <c r="H531" t="n">
         <v>1</v>
       </c>
-      <c r="I531" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J531" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K531" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -18989,15 +14198,6 @@
       <c r="H532" t="n">
         <v>1</v>
       </c>
-      <c r="I532" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J532" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K532" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -19024,15 +14224,6 @@
       <c r="H533" t="n">
         <v>1</v>
       </c>
-      <c r="I533" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J533" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K533" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -19059,15 +14250,6 @@
       <c r="H534" t="n">
         <v>1</v>
       </c>
-      <c r="I534" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J534" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K534" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -19094,15 +14276,6 @@
       <c r="H535" t="n">
         <v>1</v>
       </c>
-      <c r="I535" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J535" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K535" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -19129,15 +14302,6 @@
       <c r="H536" t="n">
         <v>1</v>
       </c>
-      <c r="I536" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J536" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K536" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -19164,15 +14328,6 @@
       <c r="H537" t="n">
         <v>1</v>
       </c>
-      <c r="I537" t="n">
-        <v>0.0322748685304671</v>
-      </c>
-      <c r="J537" t="n">
-        <v>10.5280413588577</v>
-      </c>
-      <c r="K537" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -19199,15 +14354,6 @@
       <c r="H538" t="n">
         <v>1</v>
       </c>
-      <c r="I538" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J538" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K538" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -19234,15 +14380,6 @@
       <c r="H539" t="n">
         <v>1</v>
       </c>
-      <c r="I539" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J539" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K539" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -19269,15 +14406,6 @@
       <c r="H540" t="n">
         <v>1</v>
       </c>
-      <c r="I540" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J540" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K540" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -19304,15 +14432,6 @@
       <c r="H541" t="n">
         <v>1</v>
       </c>
-      <c r="I541" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J541" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K541" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -19339,15 +14458,6 @@
       <c r="H542" t="n">
         <v>1</v>
       </c>
-      <c r="I542" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J542" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K542" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -19374,15 +14484,6 @@
       <c r="H543" t="n">
         <v>1</v>
       </c>
-      <c r="I543" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J543" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K543" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -19409,15 +14510,6 @@
       <c r="H544" t="n">
         <v>1</v>
       </c>
-      <c r="I544" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J544" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K544" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -19444,15 +14536,6 @@
       <c r="H545" t="n">
         <v>1</v>
       </c>
-      <c r="I545" t="n">
-        <v>0.0321997676066918</v>
-      </c>
-      <c r="J545" t="n">
-        <v>10.5246940316111</v>
-      </c>
-      <c r="K545" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -19479,15 +14562,6 @@
       <c r="H546" t="n">
         <v>2</v>
       </c>
-      <c r="I546" t="n">
-        <v>0.0322000253279157</v>
-      </c>
-      <c r="J546" t="n">
-        <v>10.5305175114624</v>
-      </c>
-      <c r="K546" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -19514,15 +14588,6 @@
       <c r="H547" t="n">
         <v>2</v>
       </c>
-      <c r="I547" t="n">
-        <v>0.0322000253279157</v>
-      </c>
-      <c r="J547" t="n">
-        <v>10.5305175114624</v>
-      </c>
-      <c r="K547" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -19549,15 +14614,6 @@
       <c r="H548" t="n">
         <v>2</v>
       </c>
-      <c r="I548" t="n">
-        <v>0.0322000253279157</v>
-      </c>
-      <c r="J548" t="n">
-        <v>10.5305175114624</v>
-      </c>
-      <c r="K548" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -19584,15 +14640,6 @@
       <c r="H549" t="n">
         <v>1</v>
       </c>
-      <c r="I549" t="n">
-        <v>0.0303958965104634</v>
-      </c>
-      <c r="J549" t="n">
-        <v>10.5255900251498</v>
-      </c>
-      <c r="K549" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -19619,15 +14666,6 @@
       <c r="H550" t="n">
         <v>2</v>
       </c>
-      <c r="I550" t="n">
-        <v>0.0303958965104634</v>
-      </c>
-      <c r="J550" t="n">
-        <v>10.5255900251498</v>
-      </c>
-      <c r="K550" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -19654,15 +14692,6 @@
       <c r="H551" t="n">
         <v>2</v>
       </c>
-      <c r="I551" t="n">
-        <v>0.0303958965104634</v>
-      </c>
-      <c r="J551" t="n">
-        <v>10.5255900251498</v>
-      </c>
-      <c r="K551" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -19689,15 +14718,6 @@
       <c r="H552" t="n">
         <v>1</v>
       </c>
-      <c r="I552" t="n">
-        <v>0.0303958965104634</v>
-      </c>
-      <c r="J552" t="n">
-        <v>10.5255900251498</v>
-      </c>
-      <c r="K552" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -19724,15 +14744,6 @@
       <c r="H553" t="n">
         <v>2</v>
       </c>
-      <c r="I553" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J553" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K553" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -19759,15 +14770,6 @@
       <c r="H554" t="n">
         <v>2</v>
       </c>
-      <c r="I554" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J554" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K554" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -19794,15 +14796,6 @@
       <c r="H555" t="n">
         <v>1</v>
       </c>
-      <c r="I555" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J555" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K555" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -19829,15 +14822,6 @@
       <c r="H556" t="n">
         <v>1</v>
       </c>
-      <c r="I556" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J556" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K556" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -19864,15 +14848,6 @@
       <c r="H557" t="n">
         <v>1</v>
       </c>
-      <c r="I557" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J557" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K557" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -19899,15 +14874,6 @@
       <c r="H558" t="n">
         <v>1</v>
       </c>
-      <c r="I558" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J558" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K558" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -19934,15 +14900,6 @@
       <c r="H559" t="n">
         <v>2</v>
       </c>
-      <c r="I559" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J559" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K559" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -19969,15 +14926,6 @@
       <c r="H560" t="n">
         <v>1</v>
       </c>
-      <c r="I560" t="n">
-        <v>0.0321996882408912</v>
-      </c>
-      <c r="J560" t="n">
-        <v>10.5229022010373</v>
-      </c>
-      <c r="K560" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -20004,15 +14952,6 @@
       <c r="H561" t="n">
         <v>2</v>
       </c>
-      <c r="I561" t="n">
-        <v>0.032272015384624</v>
-      </c>
-      <c r="J561" t="n">
-        <v>10.5267546390749</v>
-      </c>
-      <c r="K561" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -20039,15 +14978,6 @@
       <c r="H562" t="n">
         <v>1</v>
       </c>
-      <c r="I562" t="n">
-        <v>0.032272015384624</v>
-      </c>
-      <c r="J562" t="n">
-        <v>10.5267546390749</v>
-      </c>
-      <c r="K562" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -20074,15 +15004,6 @@
       <c r="H563" t="n">
         <v>1</v>
       </c>
-      <c r="I563" t="n">
-        <v>0.032272015384624</v>
-      </c>
-      <c r="J563" t="n">
-        <v>10.5267546390749</v>
-      </c>
-      <c r="K563" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -20109,15 +15030,6 @@
       <c r="H564" t="n">
         <v>1</v>
       </c>
-      <c r="I564" t="n">
-        <v>0.032272015384624</v>
-      </c>
-      <c r="J564" t="n">
-        <v>10.5267546390749</v>
-      </c>
-      <c r="K564" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -20144,15 +15056,6 @@
       <c r="H565" t="n">
         <v>1</v>
       </c>
-      <c r="I565" t="n">
-        <v>0.030396046230551</v>
-      </c>
-      <c r="J565" t="n">
-        <v>10.5291737038952</v>
-      </c>
-      <c r="K565" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -20179,15 +15082,6 @@
       <c r="H566" t="n">
         <v>1</v>
       </c>
-      <c r="I566" t="n">
-        <v>0.030396046230551</v>
-      </c>
-      <c r="J566" t="n">
-        <v>10.5291737038952</v>
-      </c>
-      <c r="K566" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -20214,15 +15108,6 @@
       <c r="H567" t="n">
         <v>1</v>
       </c>
-      <c r="I567" t="n">
-        <v>0.030396046230551</v>
-      </c>
-      <c r="J567" t="n">
-        <v>10.5291737038952</v>
-      </c>
-      <c r="K567" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -20249,15 +15134,6 @@
       <c r="H568" t="n">
         <v>1</v>
       </c>
-      <c r="I568" t="n">
-        <v>0.030396046230551</v>
-      </c>
-      <c r="J568" t="n">
-        <v>10.5291737038952</v>
-      </c>
-      <c r="K568" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -20284,15 +15160,6 @@
       <c r="H569" t="n">
         <v>1</v>
       </c>
-      <c r="I569" t="n">
-        <v>0.030396046230551</v>
-      </c>
-      <c r="J569" t="n">
-        <v>10.5291737038952</v>
-      </c>
-      <c r="K569" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -20319,15 +15186,6 @@
       <c r="H570" t="n">
         <v>1</v>
       </c>
-      <c r="I570" t="n">
-        <v>0.030396046230551</v>
-      </c>
-      <c r="J570" t="n">
-        <v>10.5291737038952</v>
-      </c>
-      <c r="K570" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -20354,15 +15212,6 @@
       <c r="H571" t="n">
         <v>1</v>
       </c>
-      <c r="I571" t="n">
-        <v>0.0340039612812184</v>
-      </c>
-      <c r="J571" t="n">
-        <v>10.5307951669024</v>
-      </c>
-      <c r="K571" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -20389,15 +15238,6 @@
       <c r="H572" t="n">
         <v>1</v>
       </c>
-      <c r="I572" t="n">
-        <v>0.0340039612812184</v>
-      </c>
-      <c r="J572" t="n">
-        <v>10.5307951669024</v>
-      </c>
-      <c r="K572" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -20424,15 +15264,6 @@
       <c r="H573" t="n">
         <v>1</v>
       </c>
-      <c r="I573" t="n">
-        <v>0.0340039612812184</v>
-      </c>
-      <c r="J573" t="n">
-        <v>10.5307951669024</v>
-      </c>
-      <c r="K573" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -20459,15 +15290,6 @@
       <c r="H574" t="n">
         <v>2</v>
       </c>
-      <c r="I574" t="n">
-        <v>0.0340035504201237</v>
-      </c>
-      <c r="J574" t="n">
-        <v>10.5220062063319</v>
-      </c>
-      <c r="K574" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -20494,15 +15316,6 @@
       <c r="H575" t="n">
         <v>2</v>
       </c>
-      <c r="I575" t="n">
-        <v>0.0337332473386133</v>
-      </c>
-      <c r="J575" t="n">
-        <v>10.5280894941196</v>
-      </c>
-      <c r="K575" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -20529,15 +15342,6 @@
       <c r="H576" t="n">
         <v>1</v>
       </c>
-      <c r="I576" t="n">
-        <v>0.0337332473386133</v>
-      </c>
-      <c r="J576" t="n">
-        <v>10.5280894941196</v>
-      </c>
-      <c r="K576" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -20564,15 +15368,6 @@
       <c r="H577" t="n">
         <v>1</v>
       </c>
-      <c r="I577" t="n">
-        <v>0.0337332473386133</v>
-      </c>
-      <c r="J577" t="n">
-        <v>10.5280894941196</v>
-      </c>
-      <c r="K577" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -20599,15 +15394,6 @@
       <c r="H578" t="n">
         <v>1</v>
       </c>
-      <c r="I578" t="n">
-        <v>0.0337332473386133</v>
-      </c>
-      <c r="J578" t="n">
-        <v>10.5280894941196</v>
-      </c>
-      <c r="K578" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -20634,15 +15420,6 @@
       <c r="H579" t="n">
         <v>1</v>
       </c>
-      <c r="I579" t="n">
-        <v>0.0337332473386133</v>
-      </c>
-      <c r="J579" t="n">
-        <v>10.5280894941196</v>
-      </c>
-      <c r="K579" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -20669,15 +15446,6 @@
       <c r="H580" t="n">
         <v>1</v>
       </c>
-      <c r="I580" t="n">
-        <v>0.0336790141063511</v>
-      </c>
-      <c r="J580" t="n">
-        <v>10.5255898824511</v>
-      </c>
-      <c r="K580" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -20704,15 +15472,6 @@
       <c r="H581" t="n">
         <v>1</v>
       </c>
-      <c r="I581" t="n">
-        <v>0.0336790141063511</v>
-      </c>
-      <c r="J581" t="n">
-        <v>10.5255898824511</v>
-      </c>
-      <c r="K581" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -20739,15 +15498,6 @@
       <c r="H582" t="n">
         <v>2</v>
       </c>
-      <c r="I582" t="n">
-        <v>0.0285920033528128</v>
-      </c>
-      <c r="J582" t="n">
-        <v>10.5260380562015</v>
-      </c>
-      <c r="K582" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -20774,15 +15524,6 @@
       <c r="H583" t="n">
         <v>1</v>
       </c>
-      <c r="I583" t="n">
-        <v>0.0285920033528128</v>
-      </c>
-      <c r="J583" t="n">
-        <v>10.5260380562015</v>
-      </c>
-      <c r="K583" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -20809,15 +15550,6 @@
       <c r="H584" t="n">
         <v>1</v>
       </c>
-      <c r="I584" t="n">
-        <v>0.0285920033528128</v>
-      </c>
-      <c r="J584" t="n">
-        <v>10.5260380562015</v>
-      </c>
-      <c r="K584" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -20844,15 +15576,6 @@
       <c r="H585" t="n">
         <v>1</v>
       </c>
-      <c r="I585" t="n">
-        <v>0.026788255057998</v>
-      </c>
-      <c r="J585" t="n">
-        <v>10.5304818908292</v>
-      </c>
-      <c r="K585" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -20879,15 +15602,6 @@
       <c r="H586" t="n">
         <v>1</v>
       </c>
-      <c r="I586" t="n">
-        <v>0.026788255057998</v>
-      </c>
-      <c r="J586" t="n">
-        <v>10.5304818908292</v>
-      </c>
-      <c r="K586" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -20914,15 +15628,6 @@
       <c r="H587" t="n">
         <v>1</v>
       </c>
-      <c r="I587" t="n">
-        <v>0.026788255057998</v>
-      </c>
-      <c r="J587" t="n">
-        <v>10.5304818908292</v>
-      </c>
-      <c r="K587" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -20949,15 +15654,6 @@
       <c r="H588" t="n">
         <v>1</v>
       </c>
-      <c r="I588" t="n">
-        <v>0.0303958568146966</v>
-      </c>
-      <c r="J588" t="n">
-        <v>10.5246403532416</v>
-      </c>
-      <c r="K588" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -20984,15 +15680,6 @@
       <c r="H589" t="n">
         <v>1</v>
       </c>
-      <c r="I589" t="n">
-        <v>0.0303958568146966</v>
-      </c>
-      <c r="J589" t="n">
-        <v>10.5246403532416</v>
-      </c>
-      <c r="K589" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -21019,15 +15706,6 @@
       <c r="H590" t="n">
         <v>1</v>
       </c>
-      <c r="I590" t="n">
-        <v>0.0303958568146966</v>
-      </c>
-      <c r="J590" t="n">
-        <v>10.5246403532416</v>
-      </c>
-      <c r="K590" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -21054,15 +15732,6 @@
       <c r="H591" t="n">
         <v>1</v>
       </c>
-      <c r="I591" t="n">
-        <v>0.0303958568146966</v>
-      </c>
-      <c r="J591" t="n">
-        <v>10.5246403532416</v>
-      </c>
-      <c r="K591" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -21089,15 +15758,6 @@
       <c r="H592" t="n">
         <v>2</v>
       </c>
-      <c r="I592" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J592" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K592" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -21124,15 +15784,6 @@
       <c r="H593" t="n">
         <v>2</v>
       </c>
-      <c r="I593" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J593" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K593" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -21159,15 +15810,6 @@
       <c r="H594" t="n">
         <v>1</v>
       </c>
-      <c r="I594" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J594" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K594" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -21194,15 +15836,6 @@
       <c r="H595" t="n">
         <v>1</v>
       </c>
-      <c r="I595" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J595" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K595" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -21229,15 +15862,6 @@
       <c r="H596" t="n">
         <v>1</v>
       </c>
-      <c r="I596" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J596" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K596" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -21264,15 +15888,6 @@
       <c r="H597" t="n">
         <v>1</v>
       </c>
-      <c r="I597" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J597" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K597" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -21299,15 +15914,6 @@
       <c r="H598" t="n">
         <v>1</v>
       </c>
-      <c r="I598" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J598" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K598" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -21334,15 +15940,6 @@
       <c r="H599" t="n">
         <v>1</v>
       </c>
-      <c r="I599" t="n">
-        <v>0.0267879990552777</v>
-      </c>
-      <c r="J599" t="n">
-        <v>10.5235295578779</v>
-      </c>
-      <c r="K599" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -21369,15 +15966,6 @@
       <c r="H600" t="n">
         <v>1</v>
       </c>
-      <c r="I600" t="n">
-        <v>0.0285919293771771</v>
-      </c>
-      <c r="J600" t="n">
-        <v>10.5241566307995</v>
-      </c>
-      <c r="K600" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -21404,15 +15992,6 @@
       <c r="H601" t="n">
         <v>1</v>
       </c>
-      <c r="I601" t="n">
-        <v>0.0285919293771771</v>
-      </c>
-      <c r="J601" t="n">
-        <v>10.5241566307995</v>
-      </c>
-      <c r="K601" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -21439,15 +16018,6 @@
       <c r="H602" t="n">
         <v>1</v>
       </c>
-      <c r="I602" t="n">
-        <v>0.0285919293771771</v>
-      </c>
-      <c r="J602" t="n">
-        <v>10.5241566307995</v>
-      </c>
-      <c r="K602" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -21474,15 +16044,6 @@
       <c r="H603" t="n">
         <v>1</v>
       </c>
-      <c r="I603" t="n">
-        <v>0.0285919293771771</v>
-      </c>
-      <c r="J603" t="n">
-        <v>10.5241566307995</v>
-      </c>
-      <c r="K603" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -21509,15 +16070,6 @@
       <c r="H604" t="n">
         <v>1</v>
       </c>
-      <c r="I604" t="n">
-        <v>0.0285919293771771</v>
-      </c>
-      <c r="J604" t="n">
-        <v>10.5241566307995</v>
-      </c>
-      <c r="K604" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -21544,15 +16096,6 @@
       <c r="H605" t="n">
         <v>2</v>
       </c>
-      <c r="I605" t="n">
-        <v>0.0233786556795354</v>
-      </c>
-      <c r="J605" t="n">
-        <v>10.5247212417322</v>
-      </c>
-      <c r="K605" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -21579,15 +16122,6 @@
       <c r="H606" t="n">
         <v>1</v>
       </c>
-      <c r="I606" t="n">
-        <v>0.0233786556795354</v>
-      </c>
-      <c r="J606" t="n">
-        <v>10.5247212417322</v>
-      </c>
-      <c r="K606" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -21614,15 +16148,6 @@
       <c r="H607" t="n">
         <v>1</v>
       </c>
-      <c r="I607" t="n">
-        <v>0.0233786556795354</v>
-      </c>
-      <c r="J607" t="n">
-        <v>10.5247212417322</v>
-      </c>
-      <c r="K607" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -21648,15 +16173,6 @@
       </c>
       <c r="H608" t="n">
         <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>0.0304302794904726</v>
-      </c>
-      <c r="J608" t="n">
-        <v>10.5238764043837</v>
-      </c>
-      <c r="K608" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
